--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="276">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U3-AOUT)</t>
+    <t>Net-(U3-AOUT),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -299,144 +299,147 @@
     <t>1.6000</t>
   </si>
   <si>
-    <t>Net-(C15-Pad2),/L</t>
+    <t>/L,Net-(C15-Pad2)</t>
+  </si>
+  <si>
+    <t>L,Net-(C15-Pad2)</t>
+  </si>
+  <si>
+    <t>C4 C5</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>-70.5280</t>
+  </si>
+  <si>
+    <t>-5.8820</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),GND</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>-44.0280</t>
+  </si>
+  <si>
+    <t>Net-(U3-CV),GND</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(CON1-PadT),GND,Net-(CON1-PadR)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_9),VCC,Net-(JP1-Pin_11),Net-(JP1-Pin_1),Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_3)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Inductor</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-70.5280</t>
-  </si>
-  <si>
-    <t>-5.8820</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>GND,Net-(C3-Pad1)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>Net-(U3-CV),GND</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,GND,Net-(CON1-PadR),Net-(CON1-PadT)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_7),Net-(JP1-Pin_3),Net-(JP1-Pin_1),Net-(JP1-Pin_11),Net-(JP1-Pin_9),VCC,Net-(JP1-Pin_5)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
     <t>-5.8070</t>
   </si>
   <si>
-    <t>+5VA,Net-(C3-Pad1)</t>
+    <t>Net-(C3-Pad1),+5VA</t>
   </si>
   <si>
     <t>11</t>
@@ -473,7 +476,7 @@
     <t>-76.0280</t>
   </si>
   <si>
-    <t>VCC,Net-(C3-Pad1)</t>
+    <t>Net-(C3-Pad1),VCC</t>
   </si>
   <si>
     <t>12</t>
@@ -509,10 +512,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>/D4,unconnected-(P1-Pin_7-Pad7),/A2,/~{IORQ},unconnected-(P1-Pin_38-Pad38),/D3,unconnected-(P1-Pin_35-Pad35),/A5,unconnected-(P1-Pin_3-Pad3),/A6,unconnected-(P1-Pin_2-Pad2),/D5,/D0,/~{RESET},/A7,/D2,unconnected-(P1-Pin_37-Pad37),/~{RD},/A1,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_36-Pad36),/A0,unconnected-(P1-Pin_6-Pad6),/D7,VCC,unconnected-(P1-Pin_21-Pad21),/A3,GND,unconnected-(P1-Pin_23-Pad23),/D1,unconnected-(P1-Pin_5-Pad5),/A4,/D6,unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_1-Pad1),/~{WR},unconnected-(P1-Pin_4-Pad4),/~{INT},unconnected-(P1-Pin_19-Pad19)</t>
-  </si>
-  <si>
-    <t>~{INT},unconnected-(P1-Pin_19-Pad19)</t>
+    <t>/D0,/D6,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_21-Pad21),/A5,/A4,unconnected-(P1-Pin_2-Pad2),/D5,GND,unconnected-(P1-Pin_6-Pad6),/D1,VCC,/D7,unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_8-Pad8),/A1,unconnected-(P1-Pin_5-Pad5),/D2,unconnected-(P1-Pin_4-Pad4),/~{WR},unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_19-Pad19),/~{RD},/A7,/A3,unconnected-(P1-Pin_3-Pad3),/~{IORQ},unconnected-(P1-Pin_1-Pad1),/A6,/A2,/~{RESET},/~{INT},unconnected-(P1-Pin_23-Pad23),/D3,/D4,/A0</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
   <si>
     <t>13</t>
@@ -545,7 +548,7 @@
     <t>1.8878</t>
   </si>
   <si>
-    <t>Net-(U4B--),Net-(U3-SWIN)</t>
+    <t>Net-(U3-SWIN),Net-(U4B--)</t>
   </si>
   <si>
     <t>14</t>
@@ -587,7 +590,7 @@
     <t>-12.1820</t>
   </si>
   <si>
-    <t>GND,Net-(JP1-Pin_11)</t>
+    <t>Net-(JP1-Pin_11),GND</t>
   </si>
   <si>
     <t>16</t>
@@ -629,10 +632,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A5,Net-(JP1-Pin_11),/A6,Net-(JP1-Pin_7),Net-(JP1-Pin_3),/A2,/~{IORQ},Net-(JP1-Pin_1),Net-(JP1-Pin_9),/~{CS},VCC,/A7,GND,/A3,Net-(JP1-Pin_5),/A4</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <t>Net-(JP1-Pin_9),/A3,VCC,/~{IORQ},Net-(JP1-Pin_11),/A7,/A2,/A5,/~{CS},GND,Net-(JP1-Pin_1),/A4,/A6,Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_3)</t>
+  </si>
+  <si>
+    <t>A6,Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_3)</t>
   </si>
   <si>
     <t>17</t>
@@ -671,10 +674,7 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>/R,Net-(U3-AOUT),Net-(U4B--),Net-(U3-MP),/AUDIO_CH1,/AUDIO_CH2,Net-(U3-CV),GND,/L,+5VA</t>
-  </si>
-  <si>
-    <t>L,+5VA</t>
+    <t>/R,+5VA,/L,Net-(U4B--),Net-(U3-CV),/AUDIO_CH2,Net-(U3-MP),Net-(U3-AOUT),GND,/AUDIO_CH1</t>
   </si>
   <si>
     <t>18</t>
@@ -704,10 +704,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>/SMPAC,Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),Net-(U3-MP),/AUDIO_CH1,/SMPBD,/AUDIO_CH2,Net-(U3-CV),GND,/DAC_CLK,Net-(U3-SWIN),+5VA,/DOAB</t>
-  </si>
-  <si>
-    <t>DOAB</t>
+    <t>+5VA,/SMPBD,Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),/DAC_CLK,/AUDIO_CH1,/DOAB,Net-(U3-CV),/AUDIO_CH2,Net-(U3-MP),Net-(U3-SWIN),GND,/SMPAC</t>
+  </si>
+  <si>
+    <t>SMPAC</t>
   </si>
   <si>
     <t>19</t>
@@ -734,10 +734,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/D4,unconnected-(U2-~{IRQ}-Pad2),/D3,unconnected-(U2-TEST-Pad9),/SMPAC,/D5,/D0,/~{RESET},/D2,/DAC_CLK,/~{RD},/A1,/A0,/~{CS},/D7,VCC,GND,/D1,/CLK,/DOAB,/D6,/~{WR},/SMPBD,unconnected-(U2-DOCD-Pad22)</t>
-  </si>
-  <si>
-    <t>SMPBD,unconnected-(U2-DOCD-Pad22)</t>
+    <t>/D0,/D6,/D5,GND,/D1,VCC,/D7,unconnected-(U2-TEST-Pad9),/D2,/A1,/~{WR},/CLK,unconnected-(U2-~{IRQ}-Pad2),/DAC_CLK,/~{RD},unconnected-(U2-DOCD-Pad22),/~{CS},/DOAB,/SMPAC,/SMPBD,/~{RESET},/D3,/D4,/A0</t>
   </si>
   <si>
     <t>20</t>
@@ -779,10 +776,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>VCC,GND,/CLK</t>
-  </si>
-  <si>
-    <t>CLK</t>
+    <t>/CLK,VCC,GND</t>
+  </si>
+  <si>
+    <t>CLK,VCC,GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -809,7 +806,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-09-29</t>
+    <t>2025-10-01</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1390,7 +1387,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1424,13 +1421,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="3">
         <v>20</v>
@@ -1438,41 +1435,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1480,13 +1477,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" s="3">
         <v>36</v>
@@ -2480,22 +2477,22 @@
         <v>138</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>32</v>
@@ -2525,13 +2522,13 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>63</v>
@@ -2558,10 +2555,10 @@
         <v>137</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2572,28 +2569,28 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2623,13 +2620,13 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>48</v>
@@ -2653,13 +2650,13 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>72</v>
@@ -2670,25 +2667,25 @@
     </row>
     <row r="20" spans="1:32" ht="180" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>126</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>115</v>
@@ -2721,13 +2718,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>63</v>
@@ -2745,19 +2742,19 @@
         <v>51</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>72</v>
@@ -2768,28 +2765,28 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2819,13 +2816,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>63</v>
@@ -2849,13 +2846,13 @@
         <v>53</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2866,28 +2863,28 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>56</v>
@@ -2917,10 +2914,10 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T22" s="11" t="s">
         <v>89</v>
@@ -2947,13 +2944,13 @@
         <v>53</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2964,28 +2961,28 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>108</v>
@@ -3003,7 +3000,7 @@
         <v>42</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>44</v>
@@ -3015,13 +3012,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>90</v>
@@ -3045,13 +3042,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3062,28 +3059,28 @@
     </row>
     <row r="24" spans="1:32" ht="45" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="G24" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3095,7 +3092,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3113,13 +3110,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>63</v>
@@ -3137,19 +3134,19 @@
         <v>51</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>72</v>
@@ -3160,28 +3157,28 @@
     </row>
     <row r="25" spans="1:32" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>32</v>
@@ -3193,7 +3190,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>42</v>
@@ -3211,13 +3208,13 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>63</v>
@@ -3235,19 +3232,19 @@
         <v>51</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>55</v>
@@ -3279,7 +3276,7 @@
         <v>222</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3377,7 +3374,7 @@
         <v>233</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3443,7 +3440,7 @@
         <v>238</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>72</v>
@@ -3454,28 +3451,28 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>246</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3487,7 +3484,7 @@
         <v>40</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>42</v>
@@ -3505,13 +3502,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>90</v>
@@ -3529,19 +3526,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA28" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AB28" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC28" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="AB28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC28" s="10" t="s">
+      <c r="AD28" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="AD28" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>72</v>
@@ -3573,27 +3570,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="252">
   <si>
     <t>Row</t>
   </si>
@@ -212,79 +212,271 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>GND,/AUDIO_CH1</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1</t>
+    <t>/AUDIO_CH1,GND</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,GND</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>-78.5280</t>
-  </si>
-  <si>
-    <t>-5.7945</t>
-  </si>
-  <si>
-    <t>VCC,GND</t>
+    <t>C1 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>rcbus-opl3(5)</t>
+  </si>
+  <si>
+    <t>-49.2780</t>
+  </si>
+  <si>
+    <t>-25.4320</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>+5V,GND</t>
+  </si>
+  <si>
+    <t>Default,vcc</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>rcbus-opl3(3)</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>-52.2780</t>
+  </si>
+  <si>
+    <t>-0.4320</t>
+  </si>
+  <si>
+    <t>8.9000</t>
+  </si>
+  <si>
+    <t>1.6000</t>
+  </si>
+  <si>
+    <t>Net-(U3-CV),GND</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
+    <t>-62.0280</t>
+  </si>
+  <si>
+    <t>-24.1320</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(CON1-PadT),Net-(CON1-PadR),GND</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_11),+5V,Net-(JP1-Pin_9),Net-(JP1-Pin_3)</t>
   </si>
   <si>
     <t>vcc,Default</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C1 C3 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>rcbus-opl3(6)</t>
-  </si>
-  <si>
-    <t>-49.2780</t>
-  </si>
-  <si>
-    <t>-25.4320</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>CP_Elec_5x5.9</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:CP_Elec_5x5.9</t>
-  </si>
-  <si>
-    <t>-27.0280</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-98.5280</t>
+  </si>
+  <si>
+    <t>-31.6820</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>98.2200</t>
+  </si>
+  <si>
+    <t>GND,/D7,unconnected-(P1-Pin_23-Pad23),/D2,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_35-Pad35),/A1,/A6,/A7,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_7-Pad7),/A3,/D6,unconnected-(P1-Pin_3-Pad3),/A0,/~{RESET},/~{WR},/A4,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_19-Pad19),/D0,/~{RD},/D5,/D1,/D3,/~{INT},/D4,/A2,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_38-Pad38),+5V,/~{IORQ},/A5,unconnected-(P1-Pin_21-Pad21)</t>
+  </si>
+  <si>
+    <t>A5,unconnected-(P1-Pin_21-Pad21)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>-37.2780</t>
+  </si>
+  <si>
+    <t>1.8878</t>
+  </si>
+  <si>
+    <t>Net-(U4B--),Net-(U3-SWIN)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>-19.6030</t>
   </si>
   <si>
     <t>11.3180</t>
@@ -293,453 +485,189 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>7.4000</t>
-  </si>
-  <si>
-    <t>1.6000</t>
-  </si>
-  <si>
-    <t>/L,Net-(C15-Pad2)</t>
-  </si>
-  <si>
-    <t>L,Net-(C15-Pad2)</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-70.5280</t>
-  </si>
-  <si>
-    <t>-5.8820</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),GND</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>Net-(U3-CV),GND</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,Net-(CON1-PadT),GND,Net-(CON1-PadR)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_9),VCC,Net-(JP1-Pin_11),Net-(JP1-Pin_1),Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_3)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>-67.5280</t>
-  </si>
-  <si>
-    <t>-5.8070</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),+5VA</t>
+    <t>Net-(CON1-PadT),Net-(C15-Pad2)</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
-  </si>
-  <si>
-    <t>-76.0280</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),VCC</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R1 R2 R3 R4 R5 R6 R10 R11</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>rcbus-opl3(8)</t>
+  </si>
+  <si>
+    <t>-86.3655</t>
+  </si>
+  <si>
+    <t>-12.1820</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_11),GND</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-98.5280</t>
-  </si>
-  <si>
-    <t>-31.6820</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>98.2200</t>
-  </si>
-  <si>
-    <t>/D0,/D6,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_21-Pad21),/A5,/A4,unconnected-(P1-Pin_2-Pad2),/D5,GND,unconnected-(P1-Pin_6-Pad6),/D1,VCC,/D7,unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_8-Pad8),/A1,unconnected-(P1-Pin_5-Pad5),/D2,unconnected-(P1-Pin_4-Pad4),/~{WR},unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_19-Pad19),/~{RD},/A7,/A3,unconnected-(P1-Pin_3-Pad3),/~{IORQ},unconnected-(P1-Pin_1-Pad1),/A6,/A2,/~{RESET},/~{INT},unconnected-(P1-Pin_23-Pad23),/D3,/D4,/A0</t>
-  </si>
-  <si>
-    <t>A0</t>
+    <t>8-bit magnitude comparator</t>
+  </si>
+  <si>
+    <t>74HCT688</t>
+  </si>
+  <si>
+    <t>74xx</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-73.9330</t>
+  </si>
+  <si>
+    <t>-20.5320</t>
+  </si>
+  <si>
+    <t>11.3500</t>
+  </si>
+  <si>
+    <t>12.0300</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_5),GND,/A3,/A2,Net-(JP1-Pin_11),+5V,/~{IORQ},/~{CS},Net-(JP1-Pin_9),/A4,/A5,/A6,/A7,Net-(JP1-Pin_3)</t>
+  </si>
+  <si>
+    <t>A7,Net-(JP1-Pin_3)</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>-37.2780</t>
-  </si>
-  <si>
-    <t>1.8878</t>
-  </si>
-  <si>
-    <t>Net-(U3-SWIN),Net-(U4B--)</t>
+    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>Amplifier_Operational</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-41.3905</t>
+  </si>
+  <si>
+    <t>7.8003</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>8.2200</t>
+  </si>
+  <si>
+    <t>/R,GND,/AUDIO_CH2,Net-(U4B--),/L,+5V,Net-(U3-CV),Net-(U3-MP),/AUDIO_CH1,Net-(U3-AOUT)</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,Net-(U3-AOUT)</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>-19.6030</t>
-  </si>
-  <si>
-    <t>Net-(CON1-PadT),Net-(C15-Pad2)</t>
+    <t>YAC512</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-41.5280</t>
+  </si>
+  <si>
+    <t>-6.6820</t>
+  </si>
+  <si>
+    <t>8.1000</t>
+  </si>
+  <si>
+    <t>9.4900</t>
+  </si>
+  <si>
+    <t>unconnected-(U3-TST2-Pad15),/SMPBD,GND,/DOAB,Net-(U3-SWIN),/SMPAC,+5V,Net-(U3-CV),Net-(U3-MP),Net-(U3-AOUT),/DAC_CLK,/AUDIO_CH1,/AUDIO_CH2</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6 R10 R11</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>rcbus-opl3(8)</t>
-  </si>
-  <si>
-    <t>-86.3655</t>
-  </si>
-  <si>
-    <t>-12.1820</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_11),GND</t>
+    <t>YMF262</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-20.6820</t>
+  </si>
+  <si>
+    <t>11.3000</t>
+  </si>
+  <si>
+    <t>14.5200</t>
+  </si>
+  <si>
+    <t>/CLK,GND,/D7,/SMPAC,/D2,/DAC_CLK,/A1,unconnected-(U2-DOCD-Pad22),/D6,/~{RESET},/A0,/~{CS},/~{WR},unconnected-(U2-~{IRQ}-Pad2),/SMPBD,/D0,/~{RD},/D5,/D1,/D3,/D4,unconnected-(U2-TEST-Pad9),/DOAB,+5V</t>
+  </si>
+  <si>
+    <t>DOAB,+5V</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>8-bit magnitude comparator</t>
-  </si>
-  <si>
-    <t>74HCT688</t>
-  </si>
-  <si>
-    <t>74xx</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-73.9330</t>
-  </si>
-  <si>
-    <t>-20.5320</t>
-  </si>
-  <si>
-    <t>11.3500</t>
-  </si>
-  <si>
-    <t>12.0300</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_9),/A3,VCC,/~{IORQ},Net-(JP1-Pin_11),/A7,/A2,/A5,/~{CS},GND,Net-(JP1-Pin_1),/A4,/A6,Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_3)</t>
-  </si>
-  <si>
-    <t>A6,Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_3)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
-  </si>
-  <si>
-    <t>TL074</t>
-  </si>
-  <si>
-    <t>Amplifier_Operational</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-41.3905</t>
-  </si>
-  <si>
-    <t>7.8003</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>8.2200</t>
-  </si>
-  <si>
-    <t>/R,+5VA,/L,Net-(U4B--),Net-(U3-CV),/AUDIO_CH2,Net-(U3-MP),Net-(U3-AOUT),GND,/AUDIO_CH1</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-41.5280</t>
-  </si>
-  <si>
-    <t>-6.6820</t>
-  </si>
-  <si>
-    <t>8.1000</t>
-  </si>
-  <si>
-    <t>9.4900</t>
-  </si>
-  <si>
-    <t>+5VA,/SMPBD,Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),/DAC_CLK,/AUDIO_CH1,/DOAB,Net-(U3-CV),/AUDIO_CH2,Net-(U3-MP),Net-(U3-SWIN),GND,/SMPAC</t>
-  </si>
-  <si>
-    <t>SMPAC</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>YMF262</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-20.6820</t>
-  </si>
-  <si>
-    <t>11.3000</t>
-  </si>
-  <si>
-    <t>14.5200</t>
-  </si>
-  <si>
-    <t>/D0,/D6,/D5,GND,/D1,VCC,/D7,unconnected-(U2-TEST-Pad9),/D2,/A1,/~{WR},/CLK,unconnected-(U2-~{IRQ}-Pad2),/DAC_CLK,/~{RD},unconnected-(U2-DOCD-Pad22),/~{CS},/DOAB,/SMPAC,/SMPBD,/~{RESET},/D3,/D4,/A0</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
   </si>
   <si>
@@ -776,10 +704,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>/CLK,VCC,GND</t>
-  </si>
-  <si>
-    <t>CLK,VCC,GND</t>
+    <t>/CLK,+5V,GND</t>
+  </si>
+  <si>
+    <t>CLK,+5V,GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -821,7 +749,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>36 (33 SMD/ 3 THT)</t>
+    <t>31 (28 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1342,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1356,7 +1284,7 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="46.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -1387,7 +1315,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1421,55 +1349,55 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1477,16 +1405,16 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="F6" s="3">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1809,10 +1737,10 @@
         <v>39</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>40</v>
@@ -1824,13 +1752,13 @@
         <v>42</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>44</v>
+      <c r="P11" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>44</v>
@@ -1839,13 +1767,13 @@
         <v>45</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>49</v>
@@ -1869,48 +1797,48 @@
         <v>66</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>40</v>
@@ -1922,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>44</v>
@@ -1934,16 +1862,16 @@
         <v>44</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="V12" s="11" t="s">
         <v>49</v>
@@ -1958,57 +1886,57 @@
         <v>51</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AF12" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>40</v>
@@ -2020,28 +1948,28 @@
         <v>42</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
+      <c r="P13" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>49</v>
@@ -2056,57 +1984,57 @@
         <v>51</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>40</v>
@@ -2118,87 +2046,87 @@
         <v>42</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="11" t="s">
-        <v>60</v>
+      <c r="P14" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>44</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AE14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>32</v>
@@ -2228,75 +2156,75 @@
         <v>44</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="Y15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="AF15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="30" customHeight="1">
+    <row r="16" spans="1:32" ht="165" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>32</v>
@@ -2326,75 +2254,75 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="AF16" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="45" customHeight="1">
+    <row r="17" spans="1:32">
       <c r="A17" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -2424,46 +2352,46 @@
         <v>44</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="Y17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="7" t="s">
         <v>32</v>
@@ -2471,34 +2399,34 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="9" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>40</v>
@@ -2510,28 +2438,28 @@
         <v>42</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="12" t="s">
-        <v>44</v>
+      <c r="P18" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>49</v>
@@ -2552,51 +2480,51 @@
         <v>53</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF18" s="11" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>40</v>
@@ -2608,28 +2536,28 @@
         <v>42</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>44</v>
+      <c r="P19" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>49</v>
@@ -2650,45 +2578,45 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="180" customHeight="1">
+    <row r="20" spans="1:32" ht="45" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2699,8 +2627,8 @@
       <c r="K20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>41</v>
+      <c r="L20" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>42</v>
@@ -2718,13 +2646,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>63</v>
@@ -2733,60 +2661,60 @@
         <v>49</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="Y20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AF20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2797,8 +2725,8 @@
       <c r="K21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>41</v>
+      <c r="L21" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>42</v>
@@ -2816,13 +2744,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>63</v>
@@ -2840,90 +2768,90 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="AF21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>167</v>
+        <v>194</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="I22" s="9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>60</v>
+      <c r="P22" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="V22" s="11" t="s">
         <v>49</v>
@@ -2938,90 +2866,90 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF22" s="11" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>183</v>
+        <v>205</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>42</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>60</v>
+      <c r="P23" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>49</v>
@@ -3036,51 +2964,51 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF23" s="7" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="45" customHeight="1">
+    <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3092,7 +3020,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3110,16 +3038,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3134,416 +3062,24 @@
         <v>51</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="AE24" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF25" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="45" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA26" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB26" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC26" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD26" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF26" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="60" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z27" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA27" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF27" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB28" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC28" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD28" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF28" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3570,27 +3106,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="248">
   <si>
     <t>Row</t>
   </si>
@@ -158,10 +158,10 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>-39.0280</t>
-  </si>
-  <si>
-    <t>1.9378</t>
+    <t>-39.5280</t>
+  </si>
+  <si>
+    <t>1.4378</t>
   </si>
   <si>
     <t>270.0000</t>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(U3-AOUT),GND</t>
+    <t>GND,Net-(U3-AOUT)</t>
   </si>
   <si>
     <t>Default</t>
@@ -203,19 +203,19 @@
     <t>Excluded from board</t>
   </si>
   <si>
-    <t>-40.0280</t>
-  </si>
-  <si>
-    <t>13.3430</t>
+    <t>-40.5280</t>
+  </si>
+  <si>
+    <t>12.8430</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>/AUDIO_CH1,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,GND</t>
+    <t>GND,/AUDIO_CH1</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1</t>
   </si>
   <si>
     <t>3</t>
@@ -233,60 +233,60 @@
     <t>rcbus-opl3(5)</t>
   </si>
   <si>
-    <t>-49.2780</t>
-  </si>
-  <si>
-    <t>-25.4320</t>
+    <t>-79.5280</t>
+  </si>
+  <si>
+    <t>-11.1820</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GND,+5V</t>
+  </si>
+  <si>
+    <t>Default,vcc</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C2 C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uf</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>rcbus-opl3(4)</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>-58.0280</t>
+  </si>
+  <si>
+    <t>-14.1820</t>
   </si>
   <si>
     <t>180.0000</t>
   </si>
   <si>
-    <t>+5V,GND</t>
-  </si>
-  <si>
-    <t>Default,vcc</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_6.3x5.8</t>
-  </si>
-  <si>
-    <t>rcbus-opl3(3)</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:CP_Elec_6.3x5.8</t>
-  </si>
-  <si>
-    <t>-52.2780</t>
-  </si>
-  <si>
-    <t>-0.4320</t>
-  </si>
-  <si>
     <t>8.9000</t>
   </si>
   <si>
     <t>1.6000</t>
   </si>
   <si>
-    <t>Net-(U3-CV),GND</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -299,10 +299,7 @@
     <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
   </si>
   <si>
-    <t>-62.0280</t>
-  </si>
-  <si>
-    <t>-24.1320</t>
+    <t>-24.6820</t>
   </si>
   <si>
     <t>6</t>
@@ -320,7 +317,7 @@
     <t>CON1</t>
   </si>
   <si>
-    <t>SJ1-3523N</t>
+    <t>3.5mm jack</t>
   </si>
   <si>
     <t>Headphone_Jack_3.5mm_5_pin</t>
@@ -332,10 +329,10 @@
     <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
   </si>
   <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
+    <t>-11.9590</t>
+  </si>
+  <si>
+    <t>5.7230</t>
   </si>
   <si>
     <t>THT</t>
@@ -347,7 +344,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,Net-(CON1-PadT),Net-(CON1-PadR),GND</t>
+    <t>,GND,Net-(CON1-PadR),Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>7</t>
@@ -380,7 +377,7 @@
     <t>-95.5280</t>
   </si>
   <si>
-    <t>-24.8420</t>
+    <t>-22.8420</t>
   </si>
   <si>
     <t>4.2400</t>
@@ -389,10 +386,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_11),+5V,Net-(JP1-Pin_9),Net-(JP1-Pin_3)</t>
-  </si>
-  <si>
-    <t>vcc,Default</t>
+    <t>Net-(JP1-Pin_9),Net-(JP1-Pin_1),Net-(JP1-Pin_11),Net-(JP1-Pin_3),Net-(JP1-Pin_5),Net-(JP1-Pin_7),+5V</t>
   </si>
   <si>
     <t>8</t>
@@ -416,10 +410,10 @@
     <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>-98.5280</t>
-  </si>
-  <si>
-    <t>-31.6820</t>
+    <t>-99.0280</t>
+  </si>
+  <si>
+    <t>-32.1820</t>
   </si>
   <si>
     <t>1.7000</t>
@@ -428,10 +422,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>GND,/D7,unconnected-(P1-Pin_23-Pad23),/D2,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_35-Pad35),/A1,/A6,/A7,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_7-Pad7),/A3,/D6,unconnected-(P1-Pin_3-Pad3),/A0,/~{RESET},/~{WR},/A4,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_19-Pad19),/D0,/~{RD},/D5,/D1,/D3,/~{INT},/D4,/A2,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_38-Pad38),+5V,/~{IORQ},/A5,unconnected-(P1-Pin_21-Pad21)</t>
-  </si>
-  <si>
-    <t>A5,unconnected-(P1-Pin_21-Pad21)</t>
+    <t>/~{RD},/~{INT},/~{WR},/D4,/D0,unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_21-Pad21),/A6,/A4,/A5,/A0,/D1,/D2,/D3,/D7,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_38-Pad38),/A2,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_1-Pad1),/A3,unconnected-(P1-Pin_7-Pad7),/~{RESET},/A7,/~{IORQ},/D5,GND,unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_37-Pad37),/A1,/D6,unconnected-(P1-Pin_19-Pad19),+5V</t>
+  </si>
+  <si>
+    <t>D6,unconnected-(P1-Pin_19-Pad19),+5V</t>
   </si>
   <si>
     <t>9</t>
@@ -458,13 +452,13 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>-37.2780</t>
-  </si>
-  <si>
-    <t>1.8878</t>
-  </si>
-  <si>
-    <t>Net-(U4B--),Net-(U3-SWIN)</t>
+    <t>-37.7780</t>
+  </si>
+  <si>
+    <t>1.3878</t>
+  </si>
+  <si>
+    <t>Net-(U3-SWIN),Net-(U4B--)</t>
   </si>
   <si>
     <t>10</t>
@@ -476,16 +470,13 @@
     <t>100</t>
   </si>
   <si>
-    <t>-19.6030</t>
-  </si>
-  <si>
-    <t>11.3180</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>Net-(CON1-PadT),Net-(C15-Pad2)</t>
+    <t>-20.0280</t>
+  </si>
+  <si>
+    <t>8.3180</t>
+  </si>
+  <si>
+    <t>Net-(C15-Pad2),Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>11</t>
@@ -506,13 +497,13 @@
     <t>rcbus-opl3(8)</t>
   </si>
   <si>
-    <t>-86.3655</t>
-  </si>
-  <si>
-    <t>-12.1820</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_11),GND</t>
+    <t>-87.5280</t>
+  </si>
+  <si>
+    <t>-10.1820</t>
+  </si>
+  <si>
+    <t>GND,Net-(JP1-Pin_11)</t>
   </si>
   <si>
     <t>12</t>
@@ -542,10 +533,10 @@
     <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
   </si>
   <si>
-    <t>-73.9330</t>
-  </si>
-  <si>
-    <t>-20.5320</t>
+    <t>-74.5280</t>
+  </si>
+  <si>
+    <t>-19.0320</t>
   </si>
   <si>
     <t>11.3500</t>
@@ -554,10 +545,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_5),GND,/A3,/A2,Net-(JP1-Pin_11),+5V,/~{IORQ},/~{CS},Net-(JP1-Pin_9),/A4,/A5,/A6,/A7,Net-(JP1-Pin_3)</t>
-  </si>
-  <si>
-    <t>A7,Net-(JP1-Pin_3)</t>
+    <t>/A2,/~{CS},Net-(JP1-Pin_9),/A7,Net-(JP1-Pin_11),/~{IORQ},Net-(JP1-Pin_1),GND,/A6,/A5,Net-(JP1-Pin_3),/A3,Net-(JP1-Pin_5),/A4,Net-(JP1-Pin_7),+5V</t>
+  </si>
+  <si>
+    <t>A4,Net-(JP1-Pin_7),+5V</t>
   </si>
   <si>
     <t>13</t>
@@ -584,10 +575,10 @@
     <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
   </si>
   <si>
-    <t>-41.3905</t>
-  </si>
-  <si>
-    <t>7.8003</t>
+    <t>-41.8905</t>
+  </si>
+  <si>
+    <t>7.3003</t>
   </si>
   <si>
     <t>6.9000</t>
@@ -596,10 +587,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>/R,GND,/AUDIO_CH2,Net-(U4B--),/L,+5V,Net-(U3-CV),Net-(U3-MP),/AUDIO_CH1,Net-(U3-AOUT)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,Net-(U3-AOUT)</t>
+    <t>Net-(U3-CV),/AUDIO_CH2,Net-(U3-MP),/AUDIO_CH1,GND,+5V,/R,/L,Net-(U4B--),Net-(U3-AOUT)</t>
+  </si>
+  <si>
+    <t>L,Net-(U4B--),Net-(U3-AOUT)</t>
   </si>
   <si>
     <t>14</t>
@@ -617,10 +608,10 @@
     <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
-    <t>-41.5280</t>
-  </si>
-  <si>
-    <t>-6.6820</t>
+    <t>-42.0280</t>
+  </si>
+  <si>
+    <t>-7.1820</t>
   </si>
   <si>
     <t>8.1000</t>
@@ -629,10 +620,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>unconnected-(U3-TST2-Pad15),/SMPBD,GND,/DOAB,Net-(U3-SWIN),/SMPAC,+5V,Net-(U3-CV),Net-(U3-MP),Net-(U3-AOUT),/DAC_CLK,/AUDIO_CH1,/AUDIO_CH2</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2</t>
+    <t>Net-(U3-CV),/AUDIO_CH2,Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),Net-(U3-MP),/AUDIO_CH1,GND,Net-(U3-SWIN),/SMPBD,/DOAB,/SMPAC,/DAC_CLK,+5V</t>
+  </si>
+  <si>
+    <t>DAC_CLK,+5V</t>
   </si>
   <si>
     <t>15</t>
@@ -650,7 +641,10 @@
     <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
-    <t>-20.6820</t>
+    <t>-26.0280</t>
+  </si>
+  <si>
+    <t>-19.1820</t>
   </si>
   <si>
     <t>11.3000</t>
@@ -659,10 +653,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/CLK,GND,/D7,/SMPAC,/D2,/DAC_CLK,/A1,unconnected-(U2-DOCD-Pad22),/D6,/~{RESET},/A0,/~{CS},/~{WR},unconnected-(U2-~{IRQ}-Pad2),/SMPBD,/D0,/~{RD},/D5,/D1,/D3,/D4,unconnected-(U2-TEST-Pad9),/DOAB,+5V</t>
-  </si>
-  <si>
-    <t>DOAB,+5V</t>
+    <t>/~{RD},/~{WR},/D4,/SMPAC,/D0,unconnected-(U2-~{IRQ}-Pad2),/SMPBD,/A0,/DOAB,/D3,/D7,/D1,/D2,/~{CS},/CLK,/~{RESET},unconnected-(U2-TEST-Pad9),/D5,GND,unconnected-(U2-DOCD-Pad22),/A1,/D6,/DAC_CLK,+5V</t>
   </si>
   <si>
     <t>16</t>
@@ -680,7 +671,7 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>SG-8002CA</t>
+    <t>14.3181MHz</t>
   </si>
   <si>
     <t>Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
@@ -692,10 +683,7 @@
     <t>Oscillator:Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
   </si>
   <si>
-    <t>-53.2780</t>
-  </si>
-  <si>
-    <t>-17.4320</t>
+    <t>-41.0280</t>
   </si>
   <si>
     <t>6.8800</t>
@@ -704,10 +692,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>/CLK,+5V,GND</t>
-  </si>
-  <si>
-    <t>CLK,+5V,GND</t>
+    <t>/CLK,GND,+5V</t>
+  </si>
+  <si>
+    <t>CLK,GND,+5V</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -734,7 +722,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-01</t>
+    <t>2025-10-04</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -749,7 +737,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>31 (28 SMD/ 3 THT)</t>
+    <t>32 (29 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1315,7 +1303,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1349,13 +1337,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -1363,41 +1351,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1405,16 +1393,16 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F6" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1835,10 +1823,10 @@
         <v>39</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>40</v>
@@ -1871,7 +1859,7 @@
         <v>85</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="V12" s="11" t="s">
         <v>49</v>
@@ -1886,25 +1874,25 @@
         <v>51</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB12" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF12" s="11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1963,13 +1951,13 @@
         <v>92</v>
       </c>
       <c r="S13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="U13" s="7" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>49</v>
@@ -1984,10 +1972,10 @@
         <v>51</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>69</v>
@@ -2007,28 +1995,28 @@
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>32</v>
@@ -2058,43 +2046,43 @@
         <v>44</v>
       </c>
       <c r="R14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="U14" s="11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AA14" s="11" t="s">
+      <c r="AB14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AB14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC14" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="AD14" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="10" t="s">
         <v>55</v>
@@ -2105,28 +2093,28 @@
     </row>
     <row r="15" spans="1:32" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>32</v>
@@ -2156,75 +2144,75 @@
         <v>44</v>
       </c>
       <c r="R15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="T15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="U15" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA15" s="7" t="s">
+      <c r="AB15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC15" s="6" t="s">
+      <c r="AD15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="150" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AD15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE15" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AF15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="165" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>32</v>
@@ -2254,13 +2242,13 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>63</v>
@@ -2269,31 +2257,31 @@
         <v>49</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC16" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AD16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="AB16" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD16" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="AE16" s="10" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="AF16" s="11" t="s">
         <v>32</v>
@@ -2301,28 +2289,28 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -2352,13 +2340,13 @@
         <v>44</v>
       </c>
       <c r="R17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>63</v>
@@ -2382,13 +2370,13 @@
         <v>53</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2399,28 +2387,28 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>56</v>
@@ -2450,16 +2438,16 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>49</v>
@@ -2480,13 +2468,13 @@
         <v>53</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2497,34 +2485,34 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>40</v>
@@ -2536,7 +2524,7 @@
         <v>42</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>44</v>
@@ -2548,16 +2536,16 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>49</v>
@@ -2578,45 +2566,45 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="45" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="F20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2628,7 +2616,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>42</v>
@@ -2646,13 +2634,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>63</v>
@@ -2670,22 +2658,22 @@
         <v>51</v>
       </c>
       <c r="Z20" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD20" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="AA20" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC20" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD20" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="AE20" s="10" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="AF20" s="11" t="s">
         <v>32</v>
@@ -2693,28 +2681,28 @@
     </row>
     <row r="21" spans="1:32" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2726,7 +2714,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>42</v>
@@ -2744,13 +2732,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>63</v>
@@ -2768,22 +2756,22 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AA21" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="AE21" s="6" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="AF21" s="7" t="s">
         <v>32</v>
@@ -2791,28 +2779,28 @@
     </row>
     <row r="22" spans="1:32" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="H22" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2842,13 +2830,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>63</v>
@@ -2866,19 +2854,19 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="AA22" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>75</v>
@@ -2889,28 +2877,28 @@
     </row>
     <row r="23" spans="1:32" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>32</v>
@@ -2940,13 +2928,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2964,19 +2952,19 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AA23" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="AD23" s="6" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>75</v>
@@ -2987,28 +2975,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3020,7 +3008,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3038,16 +3026,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3062,19 +3050,19 @@
         <v>51</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>75</v>
@@ -3106,27 +3094,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -158,10 +158,10 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>-39.5280</t>
-  </si>
-  <si>
-    <t>1.4378</t>
+    <t>-35.7280</t>
+  </si>
+  <si>
+    <t>2.5930</t>
   </si>
   <si>
     <t>270.0000</t>
@@ -203,229 +203,229 @@
     <t>Excluded from board</t>
   </si>
   <si>
-    <t>-40.5280</t>
-  </si>
-  <si>
-    <t>12.8430</t>
+    <t>-33.4280</t>
+  </si>
+  <si>
+    <t>13.3180</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>/AUDIO_CH1,GND</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,GND</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C1 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>rcbus-opl3(5)</t>
+  </si>
+  <si>
+    <t>-79.5280</t>
+  </si>
+  <si>
+    <t>-11.1820</t>
+  </si>
+  <si>
+    <t>+5V,GND</t>
+  </si>
+  <si>
+    <t>vcc,Default</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C2 C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uf</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>rcbus-opl3(4)</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>-58.0280</t>
+  </si>
+  <si>
+    <t>-14.1820</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>8.9000</t>
+  </si>
+  <si>
+    <t>1.6000</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
+    <t>-24.6820</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>3.5mm jack</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.9590</t>
+  </si>
+  <si>
+    <t>5.7230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(CON1-PadR),Net-(CON1-PadT),GND</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-22.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_11),+5V,Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_9),Net-(JP1-Pin_3),Net-(JP1-Pin_5)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-99.0280</t>
+  </si>
+  <si>
+    <t>-32.1820</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>GND,/AUDIO_CH1</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C1 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>rcbus-opl3(5)</t>
-  </si>
-  <si>
-    <t>-79.5280</t>
-  </si>
-  <si>
-    <t>-11.1820</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GND,+5V</t>
-  </si>
-  <si>
-    <t>Default,vcc</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C2 C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>CP_Elec_6.3x5.8</t>
-  </si>
-  <si>
-    <t>rcbus-opl3(4)</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:CP_Elec_6.3x5.8</t>
-  </si>
-  <si>
-    <t>-58.0280</t>
-  </si>
-  <si>
-    <t>-14.1820</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>8.9000</t>
-  </si>
-  <si>
-    <t>1.6000</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_6.3x7.7</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
-  </si>
-  <si>
-    <t>-24.6820</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>3.5mm jack</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.9590</t>
-  </si>
-  <si>
-    <t>5.7230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,GND,Net-(CON1-PadR),Net-(CON1-PadT)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-22.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_9),Net-(JP1-Pin_1),Net-(JP1-Pin_11),Net-(JP1-Pin_3),Net-(JP1-Pin_5),Net-(JP1-Pin_7),+5V</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-99.0280</t>
-  </si>
-  <si>
-    <t>-32.1820</t>
-  </si>
-  <si>
     <t>1.7000</t>
   </si>
   <si>
     <t>98.2200</t>
   </si>
   <si>
-    <t>/~{RD},/~{INT},/~{WR},/D4,/D0,unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_21-Pad21),/A6,/A4,/A5,/A0,/D1,/D2,/D3,/D7,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_38-Pad38),/A2,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_1-Pad1),/A3,unconnected-(P1-Pin_7-Pad7),/~{RESET},/A7,/~{IORQ},/D5,GND,unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_37-Pad37),/A1,/D6,unconnected-(P1-Pin_19-Pad19),+5V</t>
-  </si>
-  <si>
-    <t>D6,unconnected-(P1-Pin_19-Pad19),+5V</t>
+    <t>/~{INT},unconnected-(P1-Pin_3-Pad3),/D3,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_21-Pad21),/A2,unconnected-(P1-Pin_7-Pad7),/A6,/A3,/A5,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),/~{RESET},/D6,/~{RD},GND,/A4,/A7,unconnected-(P1-Pin_23-Pad23),/D2,/~{WR},unconnected-(P1-Pin_8-Pad8),/D5,unconnected-(P1-Pin_19-Pad19),/D0,unconnected-(P1-Pin_4-Pad4),+5V,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_6-Pad6),/D1,/D7,/A1,unconnected-(P1-Pin_38-Pad38),/A0,/~{IORQ},/D4</t>
+  </si>
+  <si>
+    <t>D4</t>
   </si>
   <si>
     <t>9</t>
@@ -452,10 +452,7 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>-37.7780</t>
-  </si>
-  <si>
-    <t>1.3878</t>
+    <t>-33.7780</t>
   </si>
   <si>
     <t>Net-(U3-SWIN),Net-(U4B--)</t>
@@ -470,13 +467,13 @@
     <t>100</t>
   </si>
   <si>
-    <t>-20.0280</t>
-  </si>
-  <si>
-    <t>8.3180</t>
-  </si>
-  <si>
-    <t>Net-(C15-Pad2),Net-(CON1-PadT)</t>
+    <t>-17.1280</t>
+  </si>
+  <si>
+    <t>10.9180</t>
+  </si>
+  <si>
+    <t>Net-(CON1-PadT),Net-(C15-Pad2)</t>
   </si>
   <si>
     <t>11</t>
@@ -545,10 +542,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A2,/~{CS},Net-(JP1-Pin_9),/A7,Net-(JP1-Pin_11),/~{IORQ},Net-(JP1-Pin_1),GND,/A6,/A5,Net-(JP1-Pin_3),/A3,Net-(JP1-Pin_5),/A4,Net-(JP1-Pin_7),+5V</t>
-  </si>
-  <si>
-    <t>A4,Net-(JP1-Pin_7),+5V</t>
+    <t>Net-(JP1-Pin_11),+5V,GND,/A6,/A3,/A5,/A4,Net-(JP1-Pin_7),/A7,Net-(JP1-Pin_1),Net-(JP1-Pin_9),/A2,Net-(JP1-Pin_3),/~{CS},Net-(JP1-Pin_5),/~{IORQ}</t>
+  </si>
+  <si>
+    <t>~{IORQ}</t>
   </si>
   <si>
     <t>13</t>
@@ -575,10 +572,10 @@
     <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
   </si>
   <si>
-    <t>-41.8905</t>
-  </si>
-  <si>
-    <t>7.3003</t>
+    <t>-37.0280</t>
+  </si>
+  <si>
+    <t>8.2810</t>
   </si>
   <si>
     <t>6.9000</t>
@@ -587,10 +584,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U3-CV),/AUDIO_CH2,Net-(U3-MP),/AUDIO_CH1,GND,+5V,/R,/L,Net-(U4B--),Net-(U3-AOUT)</t>
-  </si>
-  <si>
-    <t>L,Net-(U4B--),Net-(U3-AOUT)</t>
+    <t>Net-(U3-MP),/L,/AUDIO_CH2,/R,+5V,GND,Net-(U3-AOUT),/AUDIO_CH1,Net-(U4B--),Net-(U3-CV)</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,Net-(U4B--),Net-(U3-CV)</t>
   </si>
   <si>
     <t>14</t>
@@ -608,10 +605,10 @@
     <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
-    <t>-42.0280</t>
-  </si>
-  <si>
-    <t>-7.1820</t>
+    <t>-36.9330</t>
+  </si>
+  <si>
+    <t>-4.4320</t>
   </si>
   <si>
     <t>8.1000</t>
@@ -620,10 +617,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U3-CV),/AUDIO_CH2,Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),Net-(U3-MP),/AUDIO_CH1,GND,Net-(U3-SWIN),/SMPBD,/DOAB,/SMPAC,/DAC_CLK,+5V</t>
-  </si>
-  <si>
-    <t>DAC_CLK,+5V</t>
+    <t>Net-(U3-MP),/DAC_CLK,/AUDIO_CH2,+5V,Net-(U3-SWIN),GND,Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),/AUDIO_CH1,/SMPBD,/SMPAC,/DOAB,Net-(U3-CV)</t>
+  </si>
+  <si>
+    <t>DOAB,Net-(U3-CV)</t>
   </si>
   <si>
     <t>15</t>
@@ -641,10 +638,10 @@
     <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
-    <t>-26.0280</t>
-  </si>
-  <si>
-    <t>-19.1820</t>
+    <t>-28.5280</t>
+  </si>
+  <si>
+    <t>-19.6820</t>
   </si>
   <si>
     <t>11.3000</t>
@@ -653,7 +650,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/~{RD},/~{WR},/D4,/SMPAC,/D0,unconnected-(U2-~{IRQ}-Pad2),/SMPBD,/A0,/DOAB,/D3,/D7,/D1,/D2,/~{CS},/CLK,/~{RESET},unconnected-(U2-TEST-Pad9),/D5,GND,unconnected-(U2-DOCD-Pad22),/A1,/D6,/DAC_CLK,+5V</t>
+    <t>unconnected-(U2-DOCD-Pad22),/D3,/CLK,/~{RESET},/D6,/~{RD},unconnected-(U2-~{IRQ}-Pad2),/DAC_CLK,GND,/SMPBD,/SMPAC,/D2,/D5,/~{WR},/DOAB,/D0,+5V,/D1,/D7,/A1,/~{CS},unconnected-(U2-TEST-Pad9),/A0,/D4</t>
   </si>
   <si>
     <t>16</t>
@@ -683,7 +680,10 @@
     <t>Oscillator:Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
   </si>
   <si>
-    <t>-41.0280</t>
+    <t>-16.0280</t>
+  </si>
+  <si>
+    <t>-15.1820</t>
   </si>
   <si>
     <t>6.8800</t>
@@ -692,10 +692,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>/CLK,GND,+5V</t>
-  </si>
-  <si>
-    <t>CLK,GND,+5V</t>
+    <t>+5V,/CLK,GND</t>
+  </si>
+  <si>
+    <t>CLK,GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -722,7 +722,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-04</t>
+    <t>2025-10-05</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1761,7 +1761,7 @@
         <v>72</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>49</v>
@@ -1785,13 +1785,13 @@
         <v>66</v>
       </c>
       <c r="AC11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="AF11" s="7" t="s">
         <v>69</v>
@@ -1799,34 +1799,34 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>40</v>
@@ -1838,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>44</v>
@@ -1850,16 +1850,16 @@
         <v>44</v>
       </c>
       <c r="R12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="V12" s="11" t="s">
         <v>49</v>
@@ -1874,25 +1874,25 @@
         <v>51</v>
       </c>
       <c r="Z12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AA12" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="AB12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AD12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE12" s="10" t="s">
+      <c r="AF12" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1900,22 +1900,22 @@
         <v>69</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>39</v>
@@ -1948,16 +1948,16 @@
         <v>44</v>
       </c>
       <c r="R13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="U13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>49</v>
@@ -1972,22 +1972,22 @@
         <v>51</v>
       </c>
       <c r="Z13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="AF13" s="7" t="s">
         <v>32</v>
@@ -1995,28 +1995,28 @@
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>32</v>
@@ -2046,43 +2046,43 @@
         <v>44</v>
       </c>
       <c r="R14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="U14" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AA14" s="11" t="s">
+      <c r="AB14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AB14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC14" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="AD14" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE14" s="10" t="s">
         <v>55</v>
@@ -2093,28 +2093,28 @@
     </row>
     <row r="15" spans="1:32" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>32</v>
@@ -2144,75 +2144,75 @@
         <v>44</v>
       </c>
       <c r="R15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="T15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="U15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AA15" s="7" t="s">
+      <c r="AB15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC15" s="6" t="s">
+      <c r="AD15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="165" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AD15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="150" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>32</v>
@@ -2242,25 +2242,25 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>51</v>
@@ -2272,7 +2272,7 @@
         <v>133</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC16" s="10" t="s">
         <v>134</v>
@@ -2281,7 +2281,7 @@
         <v>135</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF16" s="11" t="s">
         <v>32</v>
@@ -2346,10 +2346,10 @@
         <v>144</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>49</v>
@@ -2373,10 +2373,10 @@
         <v>136</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>137</v>
@@ -2399,10 +2399,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>141</v>
@@ -2441,13 +2441,13 @@
         <v>143</v>
       </c>
       <c r="S18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="U18" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>49</v>
@@ -2468,13 +2468,13 @@
         <v>53</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2485,22 +2485,22 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>141</v>
@@ -2509,10 +2509,10 @@
         <v>142</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>40</v>
@@ -2524,7 +2524,7 @@
         <v>42</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>44</v>
@@ -2539,13 +2539,13 @@
         <v>143</v>
       </c>
       <c r="S19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="T19" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="U19" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>49</v>
@@ -2566,45 +2566,45 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="45" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2616,7 +2616,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>42</v>
@@ -2634,16 +2634,16 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="T20" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="U20" s="11" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="V20" s="11" t="s">
         <v>49</v>
@@ -2658,22 +2658,22 @@
         <v>51</v>
       </c>
       <c r="Z20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA20" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AB20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC20" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="AB20" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC20" s="10" t="s">
+      <c r="AD20" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="AD20" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="AE20" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF20" s="11" t="s">
         <v>32</v>
@@ -2681,28 +2681,28 @@
     </row>
     <row r="21" spans="1:32" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2714,7 +2714,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>42</v>
@@ -2732,16 +2732,16 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S21" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="T21" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T21" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="U21" s="7" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>49</v>
@@ -2756,22 +2756,22 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA21" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AA21" s="7" t="s">
+      <c r="AB21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AD21" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AD21" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="AE21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF21" s="7" t="s">
         <v>32</v>
@@ -2779,28 +2779,28 @@
     </row>
     <row r="22" spans="1:32" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="H22" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2830,16 +2830,16 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="T22" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="U22" s="11" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="V22" s="11" t="s">
         <v>49</v>
@@ -2854,22 +2854,22 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA22" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AB22" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC22" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC22" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AD22" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="AE22" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF22" s="11" t="s">
         <v>32</v>
@@ -2877,28 +2877,28 @@
     </row>
     <row r="23" spans="1:32" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>32</v>
@@ -2928,13 +2928,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="T23" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2952,22 +2952,22 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA23" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AA23" s="7" t="s">
+      <c r="AB23" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="AD23" s="6" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF23" s="7" t="s">
         <v>32</v>
@@ -2975,28 +2975,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3008,7 +3008,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3026,16 +3026,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="S24" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="T24" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="U24" s="11" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3056,7 +3056,7 @@
         <v>223</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC24" s="10" t="s">
         <v>224</v>
@@ -3065,7 +3065,7 @@
         <v>225</v>
       </c>
       <c r="AE24" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF24" s="11" t="s">
         <v>32</v>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -158,10 +158,10 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>-35.7280</t>
-  </si>
-  <si>
-    <t>2.5930</t>
+    <t>-36.6280</t>
+  </si>
+  <si>
+    <t>2.6180</t>
   </si>
   <si>
     <t>270.0000</t>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U3-AOUT)</t>
+    <t>Net-(U3-AOUT),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -233,16 +233,19 @@
     <t>rcbus-opl3(5)</t>
   </si>
   <si>
-    <t>-79.5280</t>
-  </si>
-  <si>
-    <t>-11.1820</t>
+    <t>-81.1280</t>
+  </si>
+  <si>
+    <t>-11.0820</t>
+  </si>
+  <si>
+    <t>180.0000</t>
   </si>
   <si>
     <t>+5V,GND</t>
   </si>
   <si>
-    <t>vcc,Default</t>
+    <t>Default,vcc</t>
   </si>
   <si>
     <t>4</t>
@@ -275,9 +278,6 @@
     <t>-14.1820</t>
   </si>
   <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t>8.9000</t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_11),+5V,Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_9),Net-(JP1-Pin_3),Net-(JP1-Pin_5)</t>
+    <t>Net-(JP1-Pin_11),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_9),Net-(JP1-Pin_3),+5V,Net-(JP1-Pin_5)</t>
   </si>
   <si>
     <t>8</t>
@@ -422,10 +422,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>/~{INT},unconnected-(P1-Pin_3-Pad3),/D3,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_21-Pad21),/A2,unconnected-(P1-Pin_7-Pad7),/A6,/A3,/A5,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),/~{RESET},/D6,/~{RD},GND,/A4,/A7,unconnected-(P1-Pin_23-Pad23),/D2,/~{WR},unconnected-(P1-Pin_8-Pad8),/D5,unconnected-(P1-Pin_19-Pad19),/D0,unconnected-(P1-Pin_4-Pad4),+5V,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_6-Pad6),/D1,/D7,/A1,unconnected-(P1-Pin_38-Pad38),/A0,/~{IORQ},/D4</t>
-  </si>
-  <si>
-    <t>D4</t>
+    <t>unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_1-Pad1),/A1,GND,/D7,/D2,unconnected-(P1-Pin_2-Pad2),/D5,/D1,/~{RD},unconnected-(P1-Pin_19-Pad19),/~{WR},unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_7-Pad7),+5V,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_4-Pad4),/~{IORQ},/D6,unconnected-(P1-Pin_8-Pad8),/D0,/A2,/A0,unconnected-(P1-Pin_21-Pad21),/D4,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_23-Pad23),/D3,unconnected-(P1-Pin_35-Pad35),/A3,/~{INT},/A5,/~{RESET},/A7,unconnected-(P1-Pin_3-Pad3),/A4,/A6</t>
+  </si>
+  <si>
+    <t>A6</t>
   </si>
   <si>
     <t>9</t>
@@ -452,7 +452,7 @@
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>-33.7780</t>
+    <t>-34.6280</t>
   </si>
   <si>
     <t>Net-(U3-SWIN),Net-(U4B--)</t>
@@ -470,10 +470,10 @@
     <t>-17.1280</t>
   </si>
   <si>
-    <t>10.9180</t>
-  </si>
-  <si>
-    <t>Net-(CON1-PadT),Net-(C15-Pad2)</t>
+    <t>10.7230</t>
+  </si>
+  <si>
+    <t>Net-(C15-Pad2),Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>11</t>
@@ -500,7 +500,7 @@
     <t>-10.1820</t>
   </si>
   <si>
-    <t>GND,Net-(JP1-Pin_11)</t>
+    <t>Net-(JP1-Pin_11),GND</t>
   </si>
   <si>
     <t>12</t>
@@ -530,7 +530,7 @@
     <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
   </si>
   <si>
-    <t>-74.5280</t>
+    <t>-74.2630</t>
   </si>
   <si>
     <t>-19.0320</t>
@@ -542,10 +542,7 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_11),+5V,GND,/A6,/A3,/A5,/A4,Net-(JP1-Pin_7),/A7,Net-(JP1-Pin_1),Net-(JP1-Pin_9),/A2,Net-(JP1-Pin_3),/~{CS},Net-(JP1-Pin_5),/~{IORQ}</t>
-  </si>
-  <si>
-    <t>~{IORQ}</t>
+    <t>/A3,Net-(JP1-Pin_11),Net-(JP1-Pin_7),/A5,Net-(JP1-Pin_1),/A7,GND,/A2,Net-(JP1-Pin_5),Net-(JP1-Pin_9),/A4,Net-(JP1-Pin_3),/~{CS},+5V,/~{IORQ},/A6</t>
   </si>
   <si>
     <t>13</t>
@@ -584,10 +581,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U3-MP),/L,/AUDIO_CH2,/R,+5V,GND,Net-(U3-AOUT),/AUDIO_CH1,Net-(U4B--),Net-(U3-CV)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,Net-(U4B--),Net-(U3-CV)</t>
+    <t>Net-(U3-MP),+5V,Net-(U3-AOUT),/R,GND,/AUDIO_CH2,/L,/AUDIO_CH1,Net-(U3-CV),Net-(U4B--)</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,Net-(U3-CV),Net-(U4B--)</t>
   </si>
   <si>
     <t>14</t>
@@ -617,10 +614,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U3-MP),/DAC_CLK,/AUDIO_CH2,+5V,Net-(U3-SWIN),GND,Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),/AUDIO_CH1,/SMPBD,/SMPAC,/DOAB,Net-(U3-CV)</t>
-  </si>
-  <si>
-    <t>DOAB,Net-(U3-CV)</t>
+    <t>Net-(U3-SWIN),/SMPAC,/DOAB,Net-(U3-MP),Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),/SMPBD,GND,/DAC_CLK,/AUDIO_CH2,Net-(U3-CV),/AUDIO_CH1,+5V</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,+5V</t>
   </si>
   <si>
     <t>15</t>
@@ -650,7 +647,10 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>unconnected-(U2-DOCD-Pad22),/D3,/CLK,/~{RESET},/D6,/~{RD},unconnected-(U2-~{IRQ}-Pad2),/DAC_CLK,GND,/SMPBD,/SMPAC,/D2,/D5,/~{WR},/DOAB,/D0,+5V,/D1,/D7,/A1,/~{CS},unconnected-(U2-TEST-Pad9),/A0,/D4</t>
+    <t>/A1,/SMPBD,GND,/D7,/DAC_CLK,/D2,/D5,/D1,/~{RD},/~{WR},/~{CS},+5V,/CLK,/D6,/SMPAC,/D0,unconnected-(U2-TEST-Pad9),/A0,/D4,/D3,unconnected-(U2-DOCD-Pad22),/DOAB,unconnected-(U2-~{IRQ}-Pad2),/~{RESET}</t>
+  </si>
+  <si>
+    <t>~{RESET}</t>
   </si>
   <si>
     <t>16</t>
@@ -722,7 +722,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-05</t>
+    <t>2025-10-06</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1761,7 +1761,7 @@
         <v>72</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>49</v>
@@ -1785,13 +1785,13 @@
         <v>66</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF11" s="7" t="s">
         <v>69</v>
@@ -1799,34 +1799,34 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>40</v>
@@ -1838,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>44</v>
@@ -1850,16 +1850,16 @@
         <v>44</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="V12" s="11" t="s">
         <v>49</v>
@@ -1880,19 +1880,19 @@
         <v>87</v>
       </c>
       <c r="AB12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AC12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE12" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="AF12" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1900,10 +1900,10 @@
         <v>69</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>35</v>
@@ -1951,13 +1951,13 @@
         <v>91</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>92</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>49</v>
@@ -1981,13 +1981,13 @@
         <v>69</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF13" s="7" t="s">
         <v>32</v>
@@ -2055,7 +2055,7 @@
         <v>103</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
@@ -2153,7 +2153,7 @@
         <v>118</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>49</v>
@@ -2183,13 +2183,13 @@
         <v>121</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="165" customHeight="1">
+    <row r="16" spans="1:32" ht="180" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>135</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF16" s="11" t="s">
         <v>32</v>
@@ -2670,36 +2670,36 @@
         <v>174</v>
       </c>
       <c r="AD20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="45" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AE20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF20" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>167</v>
@@ -2714,7 +2714,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>42</v>
@@ -2732,13 +2732,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="S21" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="T21" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>131</v>
@@ -2756,48 +2756,48 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA21" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AA21" s="7" t="s">
+      <c r="AB21" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AD21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AE21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="60" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AE21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF21" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" ht="45" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>167</v>
@@ -2830,13 +2830,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="T22" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>131</v>
@@ -2854,22 +2854,22 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA22" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AB22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC22" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AD22" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="AE22" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF22" s="11" t="s">
         <v>32</v>
@@ -2877,25 +2877,25 @@
     </row>
     <row r="23" spans="1:32" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>167</v>
@@ -2928,13 +2928,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="T23" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2952,22 +2952,22 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AA23" s="7" t="s">
+      <c r="AB23" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AD23" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="AE23" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF23" s="7" t="s">
         <v>32</v>
@@ -3065,7 +3065,7 @@
         <v>225</v>
       </c>
       <c r="AE24" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF24" s="11" t="s">
         <v>32</v>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(U3-AOUT),GND</t>
+    <t>GND,Net-(U3-AOUT)</t>
   </si>
   <si>
     <t>Default</t>
@@ -212,10 +212,10 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>/AUDIO_CH1,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,GND</t>
+    <t>GND,/AUDIO_CH1</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1</t>
   </si>
   <si>
     <t>3</t>
@@ -242,10 +242,10 @@
     <t>180.0000</t>
   </si>
   <si>
-    <t>+5V,GND</t>
-  </si>
-  <si>
-    <t>Default,vcc</t>
+    <t>GND,+5V</t>
+  </si>
+  <si>
+    <t>vcc,Default</t>
   </si>
   <si>
     <t>4</t>
@@ -341,7 +341,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,Net-(CON1-PadR),Net-(CON1-PadT),GND</t>
+    <t>,Net-(CON1-PadT),Net-(CON1-PadR),GND</t>
   </si>
   <si>
     <t>7</t>
@@ -383,7 +383,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_11),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_9),Net-(JP1-Pin_3),+5V,Net-(JP1-Pin_5)</t>
+    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_3),Net-(JP1-Pin_5),Net-(JP1-Pin_7),+5V,Net-(JP1-Pin_11),Net-(JP1-Pin_9)</t>
   </si>
   <si>
     <t>8</t>
@@ -422,10 +422,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_1-Pad1),/A1,GND,/D7,/D2,unconnected-(P1-Pin_2-Pad2),/D5,/D1,/~{RD},unconnected-(P1-Pin_19-Pad19),/~{WR},unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_7-Pad7),+5V,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_4-Pad4),/~{IORQ},/D6,unconnected-(P1-Pin_8-Pad8),/D0,/A2,/A0,unconnected-(P1-Pin_21-Pad21),/D4,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_23-Pad23),/D3,unconnected-(P1-Pin_35-Pad35),/A3,/~{INT},/A5,/~{RESET},/A7,unconnected-(P1-Pin_3-Pad3),/A4,/A6</t>
-  </si>
-  <si>
-    <t>A6</t>
+    <t>unconnected-(P1-Pin_5-Pad5),/~{IORQ},/~{INT},/D5,unconnected-(P1-Pin_39-Pad39),/~{RESET},unconnected-(P1-Pin_38-Pad38),/A7,unconnected-(P1-Pin_1-Pad1),/A3,/D1,/D4,/D6,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_4-Pad4),/A2,unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_6-Pad6),/A0,unconnected-(P1-Pin_21-Pad21),/A5,GND,/D2,unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_19-Pad19),/A4,unconnected-(P1-Pin_3-Pad3),/~{WR},unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_8-Pad8),/A6,/~{RD},unconnected-(P1-Pin_36-Pad36),/A1,/D0,+5V,/D7,/D3</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
   <si>
     <t>9</t>
@@ -473,7 +473,7 @@
     <t>10.7230</t>
   </si>
   <si>
-    <t>Net-(C15-Pad2),Net-(CON1-PadT)</t>
+    <t>Net-(CON1-PadT),Net-(C15-Pad2)</t>
   </si>
   <si>
     <t>11</t>
@@ -500,7 +500,7 @@
     <t>-10.1820</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_11),GND</t>
+    <t>GND,Net-(JP1-Pin_11)</t>
   </si>
   <si>
     <t>12</t>
@@ -542,7 +542,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A3,Net-(JP1-Pin_11),Net-(JP1-Pin_7),/A5,Net-(JP1-Pin_1),/A7,GND,/A2,Net-(JP1-Pin_5),Net-(JP1-Pin_9),/A4,Net-(JP1-Pin_3),/~{CS},+5V,/~{IORQ},/A6</t>
+    <t>/A6,Net-(JP1-Pin_1),Net-(JP1-Pin_3),/~{IORQ},Net-(JP1-Pin_5),/A2,Net-(JP1-Pin_7),/A4,/~{CS},/A5,GND,Net-(JP1-Pin_11),/A7,+5V,/A3,Net-(JP1-Pin_9)</t>
+  </si>
+  <si>
+    <t>A3,Net-(JP1-Pin_9)</t>
   </si>
   <si>
     <t>13</t>
@@ -581,10 +584,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U3-MP),+5V,Net-(U3-AOUT),/R,GND,/AUDIO_CH2,/L,/AUDIO_CH1,Net-(U3-CV),Net-(U4B--)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,Net-(U3-CV),Net-(U4B--)</t>
+    <t>/AUDIO_CH1,Net-(U3-CV),Net-(U3-MP),GND,+5V,Net-(U3-AOUT),/AUDIO_CH2,Net-(U4B--),/R,/L</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>14</t>
@@ -614,10 +617,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U3-SWIN),/SMPAC,/DOAB,Net-(U3-MP),Net-(U3-AOUT),unconnected-(U3-TST2-Pad15),/SMPBD,GND,/DAC_CLK,/AUDIO_CH2,Net-(U3-CV),/AUDIO_CH1,+5V</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,+5V</t>
+    <t>unconnected-(U3-TST2-Pad15),/DAC_CLK,/SMPAC,/SMPBD,/AUDIO_CH1,Net-(U3-SWIN),Net-(U3-CV),Net-(U3-MP),GND,+5V,Net-(U3-AOUT),/AUDIO_CH2,/DOAB</t>
+  </si>
+  <si>
+    <t>DOAB</t>
   </si>
   <si>
     <t>15</t>
@@ -647,10 +650,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/A1,/SMPBD,GND,/D7,/DAC_CLK,/D2,/D5,/D1,/~{RD},/~{WR},/~{CS},+5V,/CLK,/D6,/SMPAC,/D0,unconnected-(U2-TEST-Pad9),/A0,/D4,/D3,unconnected-(U2-DOCD-Pad22),/DOAB,unconnected-(U2-~{IRQ}-Pad2),/~{RESET}</t>
-  </si>
-  <si>
-    <t>~{RESET}</t>
+    <t>/D5,/~{RESET},/D1,/D4,/D6,/A0,/~{CS},unconnected-(U2-TEST-Pad9),GND,unconnected-(U2-DOCD-Pad22),/DOAB,/D2,/CLK,unconnected-(U2-~{IRQ}-Pad2),/~{WR},/~{RD},/A1,/D0,/SMPAC,/DAC_CLK,/SMPBD,+5V,/D7,/D3</t>
   </si>
   <si>
     <t>16</t>
@@ -692,10 +692,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>+5V,/CLK,GND</t>
-  </si>
-  <si>
-    <t>CLK,GND</t>
+    <t>/CLK,GND,+5V</t>
+  </si>
+  <si>
+    <t>CLK,GND,+5V</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -722,7 +722,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-06</t>
+    <t>2025-10-07</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -2189,7 +2189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="180" customHeight="1">
+    <row r="16" spans="1:32" ht="195" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>174</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>75</v>
@@ -2679,27 +2679,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="45" customHeight="1">
+    <row r="21" spans="1:32" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>167</v>
@@ -2714,7 +2714,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>42</v>
@@ -2732,13 +2732,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>131</v>
@@ -2756,19 +2756,19 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>75</v>
@@ -2777,27 +2777,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="60" customHeight="1">
+    <row r="22" spans="1:32" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>167</v>
@@ -2830,13 +2830,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>131</v>
@@ -2854,19 +2854,19 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>75</v>
@@ -2875,27 +2875,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="60" customHeight="1">
+    <row r="23" spans="1:32" ht="75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>167</v>
@@ -2928,13 +2928,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2952,19 +2952,19 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>75</v>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -245,7 +245,7 @@
     <t>GND,+5V</t>
   </si>
   <si>
-    <t>vcc,Default</t>
+    <t>Default,vcc</t>
   </si>
   <si>
     <t>4</t>
@@ -383,7 +383,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_3),Net-(JP1-Pin_5),Net-(JP1-Pin_7),+5V,Net-(JP1-Pin_11),Net-(JP1-Pin_9)</t>
+    <t>Net-(JP1-Pin_5),Net-(JP1-Pin_1),+5V,Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),Net-(JP1-Pin_11)</t>
   </si>
   <si>
     <t>8</t>
@@ -422,10 +422,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>unconnected-(P1-Pin_5-Pad5),/~{IORQ},/~{INT},/D5,unconnected-(P1-Pin_39-Pad39),/~{RESET},unconnected-(P1-Pin_38-Pad38),/A7,unconnected-(P1-Pin_1-Pad1),/A3,/D1,/D4,/D6,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_4-Pad4),/A2,unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_6-Pad6),/A0,unconnected-(P1-Pin_21-Pad21),/A5,GND,/D2,unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_19-Pad19),/A4,unconnected-(P1-Pin_3-Pad3),/~{WR},unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_8-Pad8),/A6,/~{RD},unconnected-(P1-Pin_36-Pad36),/A1,/D0,+5V,/D7,/D3</t>
-  </si>
-  <si>
-    <t>D3</t>
+    <t>/A3,/~{IORQ},unconnected-(P1-Pin_19-Pad19),/D4,unconnected-(P1-Pin_21-Pad21),/D7,/D0,unconnected-(P1-Pin_7-Pad7),/A4,unconnected-(P1-Pin_8-Pad8),/A1,unconnected-(P1-Pin_6-Pad6),/D3,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_39-Pad39),/A7,unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_2-Pad2),+5V,/~{WR},/~{RESET},GND,/D5,/A2,/A5,/A0,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_35-Pad35),/D2,unconnected-(P1-Pin_4-Pad4),/D6,unconnected-(P1-Pin_37-Pad37),/A6,unconnected-(P1-Pin_23-Pad23),/~{INT},/~{RD},/D1,unconnected-(P1-Pin_1-Pad1)</t>
+  </si>
+  <si>
+    <t>D1,unconnected-(P1-Pin_1-Pad1)</t>
   </si>
   <si>
     <t>9</t>
@@ -455,7 +455,7 @@
     <t>-34.6280</t>
   </si>
   <si>
-    <t>Net-(U3-SWIN),Net-(U4B--)</t>
+    <t>Net-(U4B--),Net-(U3-SWIN)</t>
   </si>
   <si>
     <t>10</t>
@@ -542,10 +542,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A6,Net-(JP1-Pin_1),Net-(JP1-Pin_3),/~{IORQ},Net-(JP1-Pin_5),/A2,Net-(JP1-Pin_7),/A4,/~{CS},/A5,GND,Net-(JP1-Pin_11),/A7,+5V,/A3,Net-(JP1-Pin_9)</t>
-  </si>
-  <si>
-    <t>A3,Net-(JP1-Pin_9)</t>
+    <t>/A7,Net-(JP1-Pin_5),/A3,/A4,/~{IORQ},Net-(JP1-Pin_1),/~{CS},/A6,/A2,Net-(JP1-Pin_3),+5V,GND,Net-(JP1-Pin_7),Net-(JP1-Pin_9),/A5,Net-(JP1-Pin_11)</t>
+  </si>
+  <si>
+    <t>A5,Net-(JP1-Pin_11)</t>
   </si>
   <si>
     <t>13</t>
@@ -584,10 +584,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>/AUDIO_CH1,Net-(U3-CV),Net-(U3-MP),GND,+5V,Net-(U3-AOUT),/AUDIO_CH2,Net-(U4B--),/R,/L</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>Net-(U3-AOUT),Net-(U3-MP),+5V,/AUDIO_CH1,Net-(U3-CV),/L,GND,Net-(U4B--),/R,/AUDIO_CH2</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2</t>
   </si>
   <si>
     <t>14</t>
@@ -617,10 +617,7 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>unconnected-(U3-TST2-Pad15),/DAC_CLK,/SMPAC,/SMPBD,/AUDIO_CH1,Net-(U3-SWIN),Net-(U3-CV),Net-(U3-MP),GND,+5V,Net-(U3-AOUT),/AUDIO_CH2,/DOAB</t>
-  </si>
-  <si>
-    <t>DOAB</t>
+    <t>Net-(U3-AOUT),/SMPAC,Net-(U3-MP),+5V,/DOAB,/AUDIO_CH1,unconnected-(U3-TST2-Pad15),/DAC_CLK,Net-(U3-CV),/SMPBD,GND,Net-(U3-SWIN),/AUDIO_CH2</t>
   </si>
   <si>
     <t>15</t>
@@ -650,7 +647,10 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/D5,/~{RESET},/D1,/D4,/D6,/A0,/~{CS},unconnected-(U2-TEST-Pad9),GND,unconnected-(U2-DOCD-Pad22),/DOAB,/D2,/CLK,unconnected-(U2-~{IRQ}-Pad2),/~{WR},/~{RD},/A1,/D0,/SMPAC,/DAC_CLK,/SMPBD,+5V,/D7,/D3</t>
+    <t>unconnected-(U2-TEST-Pad9),/D4,/D7,/D0,/A1,/DOAB,/D3,unconnected-(U2-~{IRQ}-Pad2),+5V,/~{WR},/SMPBD,/~{RESET},GND,/D5,/A0,unconnected-(U2-DOCD-Pad22),/CLK,/~{CS},/D2,/D6,/SMPAC,/~{RD},/DAC_CLK,/D1</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
   <si>
     <t>16</t>
@@ -692,10 +692,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>/CLK,GND,+5V</t>
-  </si>
-  <si>
-    <t>CLK,GND,+5V</t>
+    <t>GND,+5V,/CLK</t>
+  </si>
+  <si>
+    <t>CLK</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -722,7 +722,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-07</t>
+    <t>2025-10-08</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -2189,7 +2189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="195" customHeight="1">
+    <row r="16" spans="1:32" ht="180" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>122</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="45" customHeight="1">
+    <row r="22" spans="1:32" ht="60" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>190</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>199</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>75</v>
@@ -2877,25 +2877,25 @@
     </row>
     <row r="23" spans="1:32" ht="75" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>167</v>
@@ -2928,13 +2928,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="T23" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2952,19 +2952,19 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AA23" s="7" t="s">
+      <c r="AB23" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>75</v>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="249">
   <si>
     <t>Row</t>
   </si>
@@ -128,10 +128,10 @@
     <t>Device</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>68pf</t>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>68pF</t>
   </si>
   <si>
     <t>C_0603_1608Metric</t>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U3-AOUT)</t>
+    <t>GND,Net-(U1-AOUT)</t>
   </si>
   <si>
     <t>Default</t>
@@ -191,10 +191,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>C9 C10</t>
-  </si>
-  <si>
-    <t>2.7nf</t>
+    <t>C3 C4</t>
+  </si>
+  <si>
+    <t>2.7nF</t>
   </si>
   <si>
     <t>rcbus-opl3(2)</t>
@@ -221,7 +221,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>C1 C6 C7 C12 C19</t>
+    <t>C2 C8 C11 C12 C13</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -233,69 +233,78 @@
     <t>rcbus-opl3(5)</t>
   </si>
   <si>
-    <t>-81.1280</t>
-  </si>
-  <si>
-    <t>-11.0820</t>
+    <t>-43.3280</t>
+  </si>
+  <si>
+    <t>9.9180</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>GND,+5V</t>
+  </si>
+  <si>
+    <t>vcc,Default</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C1 C6 C7 C10</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>rcbus-opl3(4)</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>-49.0280</t>
+  </si>
+  <si>
+    <t>3.5180</t>
   </si>
   <si>
     <t>180.0000</t>
   </si>
   <si>
-    <t>GND,+5V</t>
-  </si>
-  <si>
-    <t>Default,vcc</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C2 C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>CP_Elec_6.3x5.8</t>
-  </si>
-  <si>
-    <t>rcbus-opl3(4)</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:CP_Elec_6.3x5.8</t>
+    <t>8.9000</t>
+  </si>
+  <si>
+    <t>1.6000</t>
+  </si>
+  <si>
+    <t>GND,Net-(U1-CV)</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
   </si>
   <si>
     <t>-58.0280</t>
   </si>
   <si>
-    <t>-14.1820</t>
-  </si>
-  <si>
-    <t>8.9000</t>
-  </si>
-  <si>
-    <t>1.6000</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>CP_Elec_6.3x7.7</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
-  </si>
-  <si>
     <t>-24.6820</t>
   </si>
   <si>
@@ -341,7 +350,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,Net-(CON1-PadT),Net-(CON1-PadR),GND</t>
+    <t>,Net-(CON1-PadR),GND,Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>7</t>
@@ -383,7 +392,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_5),Net-(JP1-Pin_1),+5V,Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),Net-(JP1-Pin_11)</t>
+    <t>Net-(JP1-Pin_5),Net-(JP1-Pin_11),Net-(JP1-Pin_1),Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),+5V</t>
   </si>
   <si>
     <t>8</t>
@@ -413,19 +422,16 @@
     <t>-32.1820</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>1.7000</t>
   </si>
   <si>
     <t>98.2200</t>
   </si>
   <si>
-    <t>/A3,/~{IORQ},unconnected-(P1-Pin_19-Pad19),/D4,unconnected-(P1-Pin_21-Pad21),/D7,/D0,unconnected-(P1-Pin_7-Pad7),/A4,unconnected-(P1-Pin_8-Pad8),/A1,unconnected-(P1-Pin_6-Pad6),/D3,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_39-Pad39),/A7,unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_2-Pad2),+5V,/~{WR},/~{RESET},GND,/D5,/A2,/A5,/A0,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_35-Pad35),/D2,unconnected-(P1-Pin_4-Pad4),/D6,unconnected-(P1-Pin_37-Pad37),/A6,unconnected-(P1-Pin_23-Pad23),/~{INT},/~{RD},/D1,unconnected-(P1-Pin_1-Pad1)</t>
-  </si>
-  <si>
-    <t>D1,unconnected-(P1-Pin_1-Pad1)</t>
+    <t>GND,/~{RD},/A1,/D6,unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_1-Pad1),/D4,/A2,unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_4-Pad4),/A4,/D2,/D3,/D5,/~{IORQ},/A3,/A5,unconnected-(P1-Pin_38-Pad38),/D0,/D7,/~{RESET},unconnected-(P1-Pin_8-Pad8),/D1,/A6,+5V,/A7,unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_23-Pad23),/~{INT},unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),/~{WR},/A0,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_35-Pad35)</t>
+  </si>
+  <si>
+    <t>A0,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_35-Pad35)</t>
   </si>
   <si>
     <t>9</t>
@@ -437,7 +443,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>R7</t>
+    <t>R1</t>
   </si>
   <si>
     <t>33</t>
@@ -455,13 +461,13 @@
     <t>-34.6280</t>
   </si>
   <si>
-    <t>Net-(U4B--),Net-(U3-SWIN)</t>
+    <t>Net-(U2B--),Net-(U1-SWIN)</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>R8 R9</t>
+    <t>R2 R3</t>
   </si>
   <si>
     <t>100</t>
@@ -473,19 +479,16 @@
     <t>10.7230</t>
   </si>
   <si>
-    <t>Net-(CON1-PadT),Net-(C15-Pad2)</t>
+    <t>Net-(CON1-PadT),Net-(C7-Pad2)</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6 R10 R11</t>
+    <t>Resistor Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R4 R5 R6 R7 R8 R9 R10 R11</t>
   </si>
   <si>
     <t>10K</t>
@@ -494,13 +497,10 @@
     <t>rcbus-opl3(8)</t>
   </si>
   <si>
-    <t>-87.5280</t>
-  </si>
-  <si>
-    <t>-10.1820</t>
-  </si>
-  <si>
-    <t>GND,Net-(JP1-Pin_11)</t>
+    <t>6.7230</t>
+  </si>
+  <si>
+    <t>GND,Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>12</t>
@@ -515,120 +515,123 @@
     <t>74xx</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-74.2630</t>
+  </si>
+  <si>
+    <t>-19.0320</t>
+  </si>
+  <si>
+    <t>11.3500</t>
+  </si>
+  <si>
+    <t>12.0300</t>
+  </si>
+  <si>
+    <t>/A3,/A5,Net-(JP1-Pin_5),/A4,/~{CS},Net-(JP1-Pin_11),GND,Net-(JP1-Pin_1),/A6,Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),+5V,/A7,/~{IORQ},/A2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>Amplifier_Operational</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-37.0280</t>
+  </si>
+  <si>
+    <t>8.2810</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>8.2200</t>
+  </si>
+  <si>
+    <t>Net-(U1-AOUT),GND,/AUDIO_CH1,/L,Net-(U1-MP),/R,+5V,Net-(U1-CV),/AUDIO_CH2,Net-(U2B--)</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2,Net-(U2B--)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>YAC512</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-74.2630</t>
-  </si>
-  <si>
-    <t>-19.0320</t>
-  </si>
-  <si>
-    <t>11.3500</t>
-  </si>
-  <si>
-    <t>12.0300</t>
-  </si>
-  <si>
-    <t>/A7,Net-(JP1-Pin_5),/A3,/A4,/~{IORQ},Net-(JP1-Pin_1),/~{CS},/A6,/A2,Net-(JP1-Pin_3),+5V,GND,Net-(JP1-Pin_7),Net-(JP1-Pin_9),/A5,Net-(JP1-Pin_11)</t>
-  </si>
-  <si>
-    <t>A5,Net-(JP1-Pin_11)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
-  </si>
-  <si>
-    <t>TL074</t>
-  </si>
-  <si>
-    <t>Amplifier_Operational</t>
+    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-36.9330</t>
+  </si>
+  <si>
+    <t>-4.4320</t>
+  </si>
+  <si>
+    <t>8.1000</t>
+  </si>
+  <si>
+    <t>9.4900</t>
+  </si>
+  <si>
+    <t>Net-(U1-AOUT),GND,/AUDIO_CH1,/SMPBD,/DAC_CLK,Net-(U1-MP),+5V,/AUDIO_CH2,Net-(U1-SWIN),unconnected-(U1-TST2-Pad15),Net-(U1-CV),/SMPAC,/DOAB</t>
+  </si>
+  <si>
+    <t>DOAB</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>YMF262</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-37.0280</t>
-  </si>
-  <si>
-    <t>8.2810</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>8.2200</t>
-  </si>
-  <si>
-    <t>Net-(U3-AOUT),Net-(U3-MP),+5V,/AUDIO_CH1,Net-(U3-CV),/L,GND,Net-(U4B--),/R,/AUDIO_CH2</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-36.9330</t>
-  </si>
-  <si>
-    <t>-4.4320</t>
-  </si>
-  <si>
-    <t>8.1000</t>
-  </si>
-  <si>
-    <t>9.4900</t>
-  </si>
-  <si>
-    <t>Net-(U3-AOUT),/SMPAC,Net-(U3-MP),+5V,/DOAB,/AUDIO_CH1,unconnected-(U3-TST2-Pad15),/DAC_CLK,Net-(U3-CV),/SMPBD,GND,Net-(U3-SWIN),/AUDIO_CH2</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>YMF262</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
@@ -647,10 +650,10 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>unconnected-(U2-TEST-Pad9),/D4,/D7,/D0,/A1,/DOAB,/D3,unconnected-(U2-~{IRQ}-Pad2),+5V,/~{WR},/SMPBD,/~{RESET},GND,/D5,/A0,unconnected-(U2-DOCD-Pad22),/CLK,/~{CS},/D2,/D6,/SMPAC,/~{RD},/DAC_CLK,/D1</t>
-  </si>
-  <si>
-    <t>D1</t>
+    <t>/~{RD},GND,/A1,/D6,/D4,/SMPAC,/~{CS},/D2,unconnected-(U4-TEST-Pad9),/D3,/D5,unconnected-(U4-~{IRQ}-Pad2),/D0,/D7,/~{RESET},/D1,/DAC_CLK,+5V,unconnected-(U4-DOCD-Pad22),/CLK,/DOAB,/SMPBD,/~{WR},/A0</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
   <si>
     <t>16</t>
@@ -692,10 +695,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>GND,+5V,/CLK</t>
-  </si>
-  <si>
-    <t>CLK</t>
+    <t>GND,/CLK,+5V</t>
+  </si>
+  <si>
+    <t>CLK,+5V</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -722,7 +725,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-08</t>
+    <t>2025-10-09</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1303,7 +1306,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1337,13 +1340,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -1351,41 +1354,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1393,13 +1396,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" s="3">
         <v>32</v>
@@ -1859,7 +1862,7 @@
         <v>85</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="V12" s="11" t="s">
         <v>49</v>
@@ -1874,22 +1877,22 @@
         <v>51</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB12" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF12" s="11" t="s">
         <v>76</v>
@@ -1909,13 +1912,13 @@
         <v>35</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>39</v>
@@ -1948,16 +1951,16 @@
         <v>44</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>49</v>
@@ -1972,10 +1975,10 @@
         <v>51</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>69</v>
@@ -1995,28 +1998,28 @@
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>32</v>
@@ -2046,43 +2049,43 @@
         <v>44</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="10" t="s">
         <v>55</v>
@@ -2093,28 +2096,28 @@
     </row>
     <row r="15" spans="1:32" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>32</v>
@@ -2144,43 +2147,43 @@
         <v>44</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>75</v>
@@ -2191,28 +2194,28 @@
     </row>
     <row r="16" spans="1:32" ht="180" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>32</v>
@@ -2242,43 +2245,43 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AE16" s="10" t="s">
         <v>75</v>
@@ -2289,28 +2292,28 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -2340,16 +2343,16 @@
         <v>44</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>47</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>49</v>
@@ -2370,13 +2373,13 @@
         <v>53</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2387,28 +2390,28 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>56</v>
@@ -2438,13 +2441,13 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>63</v>
@@ -2468,13 +2471,13 @@
         <v>53</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2485,34 +2488,34 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>40</v>
@@ -2524,7 +2527,7 @@
         <v>42</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>44</v>
@@ -2536,10 +2539,10 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>159</v>
@@ -2566,7 +2569,7 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>160</v>
@@ -2578,7 +2581,7 @@
         <v>55</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="45" customHeight="1">
@@ -2643,7 +2646,7 @@
         <v>171</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="V20" s="11" t="s">
         <v>49</v>
@@ -2741,7 +2744,7 @@
         <v>185</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>49</v>
@@ -2777,7 +2780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="60" customHeight="1">
+    <row r="22" spans="1:32" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>190</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>191</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>192</v>
@@ -2839,7 +2842,7 @@
         <v>196</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="V22" s="11" t="s">
         <v>49</v>
@@ -2866,7 +2869,7 @@
         <v>199</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>75</v>
@@ -2875,27 +2878,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="75" customHeight="1">
+    <row r="23" spans="1:32" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>167</v>
@@ -2928,13 +2931,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2952,19 +2955,19 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>75</v>
@@ -2975,28 +2978,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3008,7 +3011,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3026,16 +3029,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3050,19 +3053,19 @@
         <v>51</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>75</v>
@@ -3094,27 +3097,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="248">
   <si>
     <t>Row</t>
   </si>
@@ -128,7 +128,7 @@
     <t>Device</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C6</t>
   </si>
   <si>
     <t>68pF</t>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U1-AOUT)</t>
+    <t>Net-(U1-AOUT),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -203,7 +203,7 @@
     <t>Excluded from board</t>
   </si>
   <si>
-    <t>-33.4280</t>
+    <t>-37.3030</t>
   </si>
   <si>
     <t>13.3180</t>
@@ -212,16 +212,16 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>GND,/AUDIO_CH1</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1</t>
+    <t>/AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2,GND</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>C2 C8 C11 C12 C13</t>
+    <t>C5 C8 C11 C12 C13</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -242,10 +242,10 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>GND,+5V</t>
-  </si>
-  <si>
-    <t>vcc,Default</t>
+    <t>+5V,GND</t>
+  </si>
+  <si>
+    <t>Default,vcc</t>
   </si>
   <si>
     <t>4</t>
@@ -257,7 +257,7 @@
     <t>C_Polarized_Small</t>
   </si>
   <si>
-    <t>C1 C6 C7 C10</t>
+    <t>C1 C2 C7 C10</t>
   </si>
   <si>
     <t>10uF</t>
@@ -350,7 +350,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,Net-(CON1-PadR),GND,Net-(CON1-PadT)</t>
+    <t>,GND,Net-(CON1-PadT),Net-(CON1-PadR)</t>
   </si>
   <si>
     <t>7</t>
@@ -392,7 +392,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_5),Net-(JP1-Pin_11),Net-(JP1-Pin_1),Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),+5V</t>
+    <t>+5V,Net-(JP1-Pin_5),Net-(JP1-Pin_11),Net-(JP1-Pin_9),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_3)</t>
   </si>
   <si>
     <t>8</t>
@@ -428,10 +428,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>GND,/~{RD},/A1,/D6,unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_1-Pad1),/D4,/A2,unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_4-Pad4),/A4,/D2,/D3,/D5,/~{IORQ},/A3,/A5,unconnected-(P1-Pin_38-Pad38),/D0,/D7,/~{RESET},unconnected-(P1-Pin_8-Pad8),/D1,/A6,+5V,/A7,unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_23-Pad23),/~{INT},unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),/~{WR},/A0,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_35-Pad35)</t>
-  </si>
-  <si>
-    <t>A0,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_35-Pad35)</t>
+    <t>unconnected-(P1-Pin_35-Pad35),/D0,unconnected-(P1-Pin_21-Pad21),/D6,/D7,/~{IORQ},/A6,/~{RESET},+5V,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_7-Pad7),/D5,unconnected-(P1-Pin_4-Pad4),/D4,unconnected-(P1-Pin_2-Pad2),/D1,/A0,GND,/~{INT},/A7,unconnected-(P1-Pin_38-Pad38),/D2,unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_37-Pad37),/A4,/A1,/A5,unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_36-Pad36),/A3,unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_39-Pad39),/~{WR},/A2,unconnected-(P1-Pin_19-Pad19),/D3,/~{RD}</t>
+  </si>
+  <si>
+    <t>~{RD}</t>
   </si>
   <si>
     <t>9</t>
@@ -461,13 +461,13 @@
     <t>-34.6280</t>
   </si>
   <si>
-    <t>Net-(U2B--),Net-(U1-SWIN)</t>
+    <t>Net-(U1-SWIN),Net-(U2B--)</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>R2 R3</t>
+    <t>R3 R4</t>
   </si>
   <si>
     <t>100</t>
@@ -488,7 +488,7 @@
     <t>Resistor Resistor, small symbol</t>
   </si>
   <si>
-    <t>R4 R5 R6 R7 R8 R9 R10 R11</t>
+    <t>R2 R5 R6 R7 R8 R9 R10 R11</t>
   </si>
   <si>
     <t>10K</t>
@@ -500,7 +500,7 @@
     <t>6.7230</t>
   </si>
   <si>
-    <t>GND,Net-(CON1-PadT)</t>
+    <t>Net-(CON1-PadT),GND</t>
   </si>
   <si>
     <t>12</t>
@@ -542,10 +542,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A3,/A5,Net-(JP1-Pin_5),/A4,/~{CS},Net-(JP1-Pin_11),GND,Net-(JP1-Pin_1),/A6,Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),+5V,/A7,/~{IORQ},/A2</t>
-  </si>
-  <si>
-    <t>A2</t>
+    <t>/~{IORQ},/A3,/A6,GND,/A7,Net-(JP1-Pin_5),+5V,Net-(JP1-Pin_11),/~{CS},/A2,Net-(JP1-Pin_9),/A4,Net-(JP1-Pin_7),Net-(JP1-Pin_1),/A5,Net-(JP1-Pin_3)</t>
+  </si>
+  <si>
+    <t>A5,Net-(JP1-Pin_3)</t>
   </si>
   <si>
     <t>13</t>
@@ -560,45 +560,45 @@
     <t>Amplifier_Operational</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-37.0280</t>
+  </si>
+  <si>
+    <t>8.2810</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>8.2200</t>
+  </si>
+  <si>
+    <t>/R,Net-(U2B--),GND,/L,+5V,/AUDIO_CH1,/AUDIO_CH2,Net-(U1-MP),Net-(U1-AOUT),Net-(U1-CV)</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2,Net-(U1-MP),Net-(U1-AOUT),Net-(U1-CV)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>YAC512</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-37.0280</t>
-  </si>
-  <si>
-    <t>8.2810</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>8.2200</t>
-  </si>
-  <si>
-    <t>Net-(U1-AOUT),GND,/AUDIO_CH1,/L,Net-(U1-MP),/R,+5V,Net-(U1-CV),/AUDIO_CH2,Net-(U2B--)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,Net-(U2B--)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
@@ -617,10 +617,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U1-AOUT),GND,/AUDIO_CH1,/SMPBD,/DAC_CLK,Net-(U1-MP),+5V,/AUDIO_CH2,Net-(U1-SWIN),unconnected-(U1-TST2-Pad15),Net-(U1-CV),/SMPAC,/DOAB</t>
-  </si>
-  <si>
-    <t>DOAB</t>
+    <t>/DOAB,Net-(U1-SWIN),GND,/DAC_CLK,unconnected-(U1-TST2-Pad15),/SMPAC,+5V,/AUDIO_CH1,/AUDIO_CH2,Net-(U1-MP),Net-(U1-AOUT),Net-(U1-CV),/SMPBD</t>
+  </si>
+  <si>
+    <t>SMPBD</t>
   </si>
   <si>
     <t>15</t>
@@ -650,10 +650,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/~{RD},GND,/A1,/D6,/D4,/SMPAC,/~{CS},/D2,unconnected-(U4-TEST-Pad9),/D3,/D5,unconnected-(U4-~{IRQ}-Pad2),/D0,/D7,/~{RESET},/D1,/DAC_CLK,+5V,unconnected-(U4-DOCD-Pad22),/CLK,/DOAB,/SMPBD,/~{WR},/A0</t>
-  </si>
-  <si>
-    <t>A0</t>
+    <t>/DOAB,/D0,/D6,/D7,/~{RESET},+5V,/SMPAC,/D5,unconnected-(U4-TEST-Pad9),/SMPBD,/D4,/D1,/A0,GND,unconnected-(U4-DOCD-Pad22),/CLK,/D2,/~{CS},/A1,/DAC_CLK,unconnected-(U4-~{IRQ}-Pad2),/~{WR},/D3,/~{RD}</t>
   </si>
   <si>
     <t>16</t>
@@ -695,10 +692,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>GND,/CLK,+5V</t>
-  </si>
-  <si>
-    <t>CLK,+5V</t>
+    <t>+5V,GND,/CLK</t>
+  </si>
+  <si>
+    <t>CLK</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1306,7 +1303,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1340,13 +1337,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -1354,41 +1351,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1396,13 +1393,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F6" s="3">
         <v>32</v>
@@ -2192,7 +2189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="180" customHeight="1">
+    <row r="16" spans="1:32" ht="165" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>125</v>
       </c>
@@ -2967,7 +2964,7 @@
         <v>210</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>75</v>
@@ -2978,28 +2975,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3011,7 +3008,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3029,13 +3026,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="S24" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>73</v>
@@ -3053,19 +3050,19 @@
         <v>51</v>
       </c>
       <c r="Z24" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA24" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AB24" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC24" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="AB24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC24" s="10" t="s">
+      <c r="AD24" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="AD24" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>75</v>
@@ -3097,27 +3094,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="247">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(U1-AOUT),GND</t>
+    <t>GND,Net-(U1-AOUT)</t>
   </si>
   <si>
     <t>Default</t>
@@ -242,10 +242,10 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>+5V,GND</t>
-  </si>
-  <si>
-    <t>Default,vcc</t>
+    <t>GND,+5V</t>
+  </si>
+  <si>
+    <t>vcc,Default</t>
   </si>
   <si>
     <t>4</t>
@@ -392,7 +392,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>+5V,Net-(JP1-Pin_5),Net-(JP1-Pin_11),Net-(JP1-Pin_9),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_3)</t>
+    <t>Net-(JP1-Pin_3),Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_5),Net-(JP1-Pin_11),+5V,Net-(JP1-Pin_9)</t>
   </si>
   <si>
     <t>8</t>
@@ -428,10 +428,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>unconnected-(P1-Pin_35-Pad35),/D0,unconnected-(P1-Pin_21-Pad21),/D6,/D7,/~{IORQ},/A6,/~{RESET},+5V,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_7-Pad7),/D5,unconnected-(P1-Pin_4-Pad4),/D4,unconnected-(P1-Pin_2-Pad2),/D1,/A0,GND,/~{INT},/A7,unconnected-(P1-Pin_38-Pad38),/D2,unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_37-Pad37),/A4,/A1,/A5,unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_36-Pad36),/A3,unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_39-Pad39),/~{WR},/A2,unconnected-(P1-Pin_19-Pad19),/D3,/~{RD}</t>
-  </si>
-  <si>
-    <t>~{RD}</t>
+    <t>unconnected-(P1-Pin_36-Pad36),/A6,/A7,/~{WR},/A4,/D4,/D0,/D1,unconnected-(P1-Pin_23-Pad23),GND,/A2,unconnected-(P1-Pin_3-Pad3),/D5,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_35-Pad35),/D3,unconnected-(P1-Pin_38-Pad38),/D2,unconnected-(P1-Pin_8-Pad8),/~{RD},/D6,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_19-Pad19),/D7,/A0,unconnected-(P1-Pin_5-Pad5),/A1,unconnected-(P1-Pin_6-Pad6),/A3,/~{INT},/A5,/~{IORQ},+5V,/~{RESET}</t>
+  </si>
+  <si>
+    <t>~{RESET}</t>
   </si>
   <si>
     <t>9</t>
@@ -500,7 +500,7 @@
     <t>6.7230</t>
   </si>
   <si>
-    <t>Net-(CON1-PadT),GND</t>
+    <t>GND,Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>12</t>
@@ -542,10 +542,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/~{IORQ},/A3,/A6,GND,/A7,Net-(JP1-Pin_5),+5V,Net-(JP1-Pin_11),/~{CS},/A2,Net-(JP1-Pin_9),/A4,Net-(JP1-Pin_7),Net-(JP1-Pin_1),/A5,Net-(JP1-Pin_3)</t>
-  </si>
-  <si>
-    <t>A5,Net-(JP1-Pin_3)</t>
+    <t>GND,Net-(JP1-Pin_3),/A2,/A3,Net-(JP1-Pin_1),Net-(JP1-Pin_7),/A6,/A7,Net-(JP1-Pin_5),/A5,/A4,Net-(JP1-Pin_11),/~{IORQ},+5V,Net-(JP1-Pin_9),/~{CS}</t>
+  </si>
+  <si>
+    <t>~{CS}</t>
   </si>
   <si>
     <t>13</t>
@@ -584,10 +584,7 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>/R,Net-(U2B--),GND,/L,+5V,/AUDIO_CH1,/AUDIO_CH2,Net-(U1-MP),Net-(U1-AOUT),Net-(U1-CV)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,Net-(U1-MP),Net-(U1-AOUT),Net-(U1-CV)</t>
+    <t>GND,/AUDIO_CH2,/L,Net-(U1-MP),Net-(U2B--),Net-(U1-CV),/AUDIO_CH1,Net-(U1-AOUT),+5V,/R</t>
   </si>
   <si>
     <t>14</t>
@@ -617,10 +614,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>/DOAB,Net-(U1-SWIN),GND,/DAC_CLK,unconnected-(U1-TST2-Pad15),/SMPAC,+5V,/AUDIO_CH1,/AUDIO_CH2,Net-(U1-MP),Net-(U1-AOUT),Net-(U1-CV),/SMPBD</t>
-  </si>
-  <si>
-    <t>SMPBD</t>
+    <t>GND,/AUDIO_CH2,Net-(U1-MP),/AUDIO_CH1,Net-(U1-CV),/SMPAC,/DAC_CLK,Net-(U1-SWIN),Net-(U1-AOUT),/DOAB,+5V,/SMPBD,unconnected-(U1-TST2-Pad15)</t>
+  </si>
+  <si>
+    <t>SMPBD,unconnected-(U1-TST2-Pad15)</t>
   </si>
   <si>
     <t>15</t>
@@ -650,7 +647,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/DOAB,/D0,/D6,/D7,/~{RESET},+5V,/SMPAC,/D5,unconnected-(U4-TEST-Pad9),/SMPBD,/D4,/D1,/A0,GND,unconnected-(U4-DOCD-Pad22),/CLK,/D2,/~{CS},/A1,/DAC_CLK,unconnected-(U4-~{IRQ}-Pad2),/~{WR},/D3,/~{RD}</t>
+    <t>/~{WR},/D4,/SMPAC,/D0,/D1,/~{CS},GND,/D5,/D3,/DAC_CLK,/DOAB,/D2,/~{RD},/D6,/D7,/A0,unconnected-(U4-TEST-Pad9),/SMPBD,/A1,unconnected-(U4-DOCD-Pad22),+5V,unconnected-(U4-~{IRQ}-Pad2),/CLK,/~{RESET}</t>
   </si>
   <si>
     <t>16</t>
@@ -692,10 +689,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>+5V,GND,/CLK</t>
-  </si>
-  <si>
-    <t>CLK</t>
+    <t>GND,/CLK,+5V</t>
+  </si>
+  <si>
+    <t>CLK,+5V</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1303,7 +1300,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1337,13 +1334,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -1351,41 +1348,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1393,13 +1390,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="3">
         <v>32</v>
@@ -2189,7 +2186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="165" customHeight="1">
+    <row r="16" spans="1:32" ht="180" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>125</v>
       </c>
@@ -2768,7 +2765,7 @@
         <v>188</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>75</v>
@@ -2779,25 +2776,25 @@
     </row>
     <row r="22" spans="1:32" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>167</v>
@@ -2830,13 +2827,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="T22" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>73</v>
@@ -2854,19 +2851,19 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA22" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AB22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC22" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>75</v>
@@ -2877,25 +2874,25 @@
     </row>
     <row r="23" spans="1:32" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>167</v>
@@ -2928,13 +2925,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="T23" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2952,16 +2949,16 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AA23" s="7" t="s">
+      <c r="AB23" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="AD23" s="6" t="s">
         <v>137</v>
@@ -2975,28 +2972,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="H24" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3008,7 +3005,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3026,13 +3023,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="S24" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="T24" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>73</v>
@@ -3050,19 +3047,19 @@
         <v>51</v>
       </c>
       <c r="Z24" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA24" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AB24" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC24" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="AB24" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC24" s="10" t="s">
+      <c r="AD24" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="AD24" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>75</v>
@@ -3094,27 +3091,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U1-AOUT)</t>
+    <t>GND,Net-(U1B-+)</t>
   </si>
   <si>
     <t>Default</t>
@@ -245,7 +245,7 @@
     <t>GND,+5V</t>
   </si>
   <si>
-    <t>vcc,Default</t>
+    <t>Default,vcc</t>
   </si>
   <si>
     <t>4</t>
@@ -287,7 +287,7 @@
     <t>1.6000</t>
   </si>
   <si>
-    <t>GND,Net-(U1-CV)</t>
+    <t>Net-(U1A-+),GND</t>
   </si>
   <si>
     <t>C9</t>
@@ -350,7 +350,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,GND,Net-(CON1-PadT),Net-(CON1-PadR)</t>
+    <t>,Net-(CON1-PadR),Net-(CON1-PadT),GND</t>
   </si>
   <si>
     <t>7</t>
@@ -392,7 +392,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_3),Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_5),Net-(JP1-Pin_11),+5V,Net-(JP1-Pin_9)</t>
+    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_11),Net-(JP1-Pin_7),+5V,Net-(JP1-Pin_5),Net-(JP1-Pin_3),Net-(JP1-Pin_9)</t>
   </si>
   <si>
     <t>8</t>
@@ -428,10 +428,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>unconnected-(P1-Pin_36-Pad36),/A6,/A7,/~{WR},/A4,/D4,/D0,/D1,unconnected-(P1-Pin_23-Pad23),GND,/A2,unconnected-(P1-Pin_3-Pad3),/D5,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_35-Pad35),/D3,unconnected-(P1-Pin_38-Pad38),/D2,unconnected-(P1-Pin_8-Pad8),/~{RD},/D6,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_19-Pad19),/D7,/A0,unconnected-(P1-Pin_5-Pad5),/A1,unconnected-(P1-Pin_6-Pad6),/A3,/~{INT},/A5,/~{IORQ},+5V,/~{RESET}</t>
-  </si>
-  <si>
-    <t>~{RESET}</t>
+    <t>GND,/~{RD},unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_6-Pad6),+5V,unconnected-(P1-Pin_39-Pad39),/A5,/A0,unconnected-(P1-Pin_8-Pad8),/D1,/D2,/~{WR},/~{INT},/A4,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_19-Pad19),/D5,/~{RESET},unconnected-(P1-Pin_3-Pad3),/D4,/A3,/A1,/~{IORQ},/A2,/D6,unconnected-(P1-Pin_36-Pad36),/D7,/D0,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_4-Pad4),/A6,/D3,/A7,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_35-Pad35)</t>
+  </si>
+  <si>
+    <t>A7,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_35-Pad35)</t>
   </si>
   <si>
     <t>9</t>
@@ -461,7 +461,7 @@
     <t>-34.6280</t>
   </si>
   <si>
-    <t>Net-(U1-SWIN),Net-(U2B--)</t>
+    <t>Net-(U2-SWIN),Net-(U1B--)</t>
   </si>
   <si>
     <t>10</t>
@@ -479,7 +479,7 @@
     <t>10.7230</t>
   </si>
   <si>
-    <t>Net-(CON1-PadT),Net-(C7-Pad2)</t>
+    <t>Net-(C7-Pad2),Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>11</t>
@@ -542,10 +542,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>GND,Net-(JP1-Pin_3),/A2,/A3,Net-(JP1-Pin_1),Net-(JP1-Pin_7),/A6,/A7,Net-(JP1-Pin_5),/A5,/A4,Net-(JP1-Pin_11),/~{IORQ},+5V,Net-(JP1-Pin_9),/~{CS}</t>
-  </si>
-  <si>
-    <t>~{CS}</t>
+    <t>/A4,GND,Net-(JP1-Pin_5),Net-(JP1-Pin_1),/~{CS},/A6,Net-(JP1-Pin_11),/A3,Net-(JP1-Pin_7),+5V,/~{IORQ},/A7,/A5,/A2,Net-(JP1-Pin_3),Net-(JP1-Pin_9)</t>
+  </si>
+  <si>
+    <t>A2,Net-(JP1-Pin_3),Net-(JP1-Pin_9)</t>
   </si>
   <si>
     <t>13</t>
@@ -584,7 +584,7 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>GND,/AUDIO_CH2,/L,Net-(U1-MP),Net-(U2B--),Net-(U1-CV),/AUDIO_CH1,Net-(U1-AOUT),+5V,/R</t>
+    <t>/AUDIO_CH1,GND,Net-(U1A-+),Net-(U1B--),+5V,Net-(U1A--),Net-(U1B-+),/L,/AUDIO_CH2,/R</t>
   </si>
   <si>
     <t>14</t>
@@ -614,10 +614,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>GND,/AUDIO_CH2,Net-(U1-MP),/AUDIO_CH1,Net-(U1-CV),/SMPAC,/DAC_CLK,Net-(U1-SWIN),Net-(U1-AOUT),/DOAB,+5V,/SMPBD,unconnected-(U1-TST2-Pad15)</t>
-  </si>
-  <si>
-    <t>SMPBD,unconnected-(U1-TST2-Pad15)</t>
+    <t>/AUDIO_CH1,GND,/DAC_CLK,/SMPAC,Net-(U2-SWIN),/SMPBD,Net-(U1A-+),+5V,Net-(U1B-+),Net-(U1A--),unconnected-(U2-TST2-Pad15),/AUDIO_CH2,/DOAB</t>
+  </si>
+  <si>
+    <t>DOAB</t>
   </si>
   <si>
     <t>15</t>
@@ -647,7 +647,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/~{WR},/D4,/SMPAC,/D0,/D1,/~{CS},GND,/D5,/D3,/DAC_CLK,/DOAB,/D2,/~{RD},/D6,/D7,/A0,unconnected-(U4-TEST-Pad9),/SMPBD,/A1,unconnected-(U4-DOCD-Pad22),+5V,unconnected-(U4-~{IRQ}-Pad2),/CLK,/~{RESET}</t>
+    <t>/~{RD},GND,/DAC_CLK,+5V,/~{CS},/A0,/D1,/D2,/~{WR},unconnected-(U4-~{IRQ}-Pad2),unconnected-(U4-DOCD-Pad22),unconnected-(U4-TEST-Pad9),/D5,/~{RESET},/SMPBD,/D4,/A1,/CLK,/D6,/SMPAC,/D7,/D0,/D3,/DOAB</t>
   </si>
   <si>
     <t>16</t>
@@ -719,7 +719,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-09</t>
+    <t>2025-10-11</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -2961,7 +2961,7 @@
         <v>209</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>75</v>

--- a/BoM/Positional/rcbus-opl3-bom.xlsx
+++ b/BoM/Positional/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="253">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U1B-+)</t>
+    <t>Net-(U1B-+),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -212,10 +212,10 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>/AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,GND</t>
+    <t>GND,/AUDIO_CH2</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2</t>
   </si>
   <si>
     <t>3</t>
@@ -242,7 +242,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>GND,+5V</t>
+    <t>+5V,GND</t>
   </si>
   <si>
     <t>Default,vcc</t>
@@ -251,7 +251,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>Polarized capacitor, small symbol</t>
+    <t>Polymer Aluminium Electrolytic Capacitor, 10 µF, 10 V, Radial Can - SMD, 0.045 ohm</t>
   </si>
   <si>
     <t>C_Polarized_Small</t>
@@ -266,6 +266,9 @@
     <t>CP_Elec_6.3x5.8</t>
   </si>
   <si>
+    <t>https://www.we-online.com/components/products/datasheet/875105240001.pdf</t>
+  </si>
+  <si>
     <t>rcbus-opl3(4)</t>
   </si>
   <si>
@@ -290,6 +293,9 @@
     <t>Net-(U1A-+),GND</t>
   </si>
   <si>
+    <t>Polymer Aluminium Electrolytic Capacitor, 100 µF, 25 V, Radial Can - SMD, 0.036 ohm</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
@@ -350,7 +356,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,Net-(CON1-PadR),Net-(CON1-PadT),GND</t>
+    <t>,Net-(CON1-PadR),GND,Net-(CON1-PadT)</t>
   </si>
   <si>
     <t>7</t>
@@ -392,7 +398,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_11),Net-(JP1-Pin_7),+5V,Net-(JP1-Pin_5),Net-(JP1-Pin_3),Net-(JP1-Pin_9)</t>
+    <t>Net-(JP1-Pin_9),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_5),+5V,Net-(JP1-Pin_11),Net-(JP1-Pin_3)</t>
   </si>
   <si>
     <t>8</t>
@@ -428,10 +434,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>GND,/~{RD},unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_6-Pad6),+5V,unconnected-(P1-Pin_39-Pad39),/A5,/A0,unconnected-(P1-Pin_8-Pad8),/D1,/D2,/~{WR},/~{INT},/A4,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_7-Pad7),unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_19-Pad19),/D5,/~{RESET},unconnected-(P1-Pin_3-Pad3),/D4,/A3,/A1,/~{IORQ},/A2,/D6,unconnected-(P1-Pin_36-Pad36),/D7,/D0,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_4-Pad4),/A6,/D3,/A7,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_35-Pad35)</t>
-  </si>
-  <si>
-    <t>A7,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_35-Pad35)</t>
+    <t>/~{INT},unconnected-(P1-Pin_36-Pad36),/~{RD},/A2,/A0,/D3,/D6,/D7,/~{RESET},unconnected-(P1-Pin_38-Pad38),/D4,/A1,unconnected-(P1-Pin_5-Pad5),/D5,unconnected-(P1-Pin_8-Pad8),/A6,unconnected-(P1-Pin_4-Pad4),/A4,/A3,/A5,unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_23-Pad23),/D0,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_39-Pad39),/A7,unconnected-(P1-Pin_7-Pad7),/D1,/D2,/~{IORQ},unconnected-(P1-Pin_2-Pad2),+5V,unconnected-(P1-Pin_37-Pad37),/~{WR},unconnected-(P1-Pin_3-Pad3),GND,unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_1-Pad1)</t>
+  </si>
+  <si>
+    <t>~{WR},unconnected-(P1-Pin_3-Pad3),GND,unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_1-Pad1)</t>
   </si>
   <si>
     <t>9</t>
@@ -479,13 +485,13 @@
     <t>10.7230</t>
   </si>
   <si>
-    <t>Net-(C7-Pad2),Net-(CON1-PadT)</t>
+    <t>Net-(CON1-PadT),Net-(C7-Pad2)</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Resistor Resistor, small symbol</t>
+    <t>Resistor SMD Chip Resistor, 10 kohm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
   </si>
   <si>
     <t>R2 R5 R6 R7 R8 R9 R10 R11</t>
@@ -500,13 +506,13 @@
     <t>6.7230</t>
   </si>
   <si>
-    <t>GND,Net-(CON1-PadT)</t>
+    <t>Net-(CON1-PadT),GND</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>8-bit magnitude comparator</t>
+    <t>Digital Comparator, 74HCT688, Magnitude, 8 Channels, 8bit, SOIC, 20 Pins</t>
   </si>
   <si>
     <t>74HCT688</t>
@@ -542,10 +548,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A4,GND,Net-(JP1-Pin_5),Net-(JP1-Pin_1),/~{CS},/A6,Net-(JP1-Pin_11),/A3,Net-(JP1-Pin_7),+5V,/~{IORQ},/A7,/A5,/A2,Net-(JP1-Pin_3),Net-(JP1-Pin_9)</t>
-  </si>
-  <si>
-    <t>A2,Net-(JP1-Pin_3),Net-(JP1-Pin_9)</t>
+    <t>/~{IORQ},Net-(JP1-Pin_9),/A6,Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_5),+5V,Net-(JP1-Pin_11),/A4,/A2,Net-(JP1-Pin_3),GND,/A7,/A3,/A5,/~{CS}</t>
+  </si>
+  <si>
+    <t>~{CS}</t>
   </si>
   <si>
     <t>13</t>
@@ -584,12 +590,18 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>/AUDIO_CH1,GND,Net-(U1A-+),Net-(U1B--),+5V,Net-(U1A--),Net-(U1B-+),/L,/AUDIO_CH2,/R</t>
+    <t>Net-(U1A-+),+5V,Net-(U1B-+),Net-(U1B--),/R,/AUDIO_CH1,GND,Net-(U1A--),/AUDIO_CH2,/L</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t>2-Channel floating D/A converter</t>
+  </si>
+  <si>
     <t>YAC512</t>
   </si>
   <si>
@@ -599,6 +611,9 @@
     <t>SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
+    <t>https://www.ardent-tool.com/datasheets/Yamaha_YAC512.pdf</t>
+  </si>
+  <si>
     <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
@@ -614,10 +629,7 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>/AUDIO_CH1,GND,/DAC_CLK,/SMPAC,Net-(U2-SWIN),/SMPBD,Net-(U1A-+),+5V,Net-(U1B-+),Net-(U1A--),unconnected-(U2-TST2-Pad15),/AUDIO_CH2,/DOAB</t>
-  </si>
-  <si>
-    <t>DOAB</t>
+    <t>Net-(U1A-+),/DAC_CLK,unconnected-(U2-TST2-Pad15),/DOAB,+5V,Net-(U1B-+),/AUDIO_CH1,GND,/SMPAC,Net-(U1A--),Net-(U2-SWIN),/SMPBD,/AUDIO_CH2</t>
   </si>
   <si>
     <t>15</t>
@@ -632,6 +644,9 @@
     <t>SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
+    <t>http://www.bitsavers.org/components/yamaha/YMF262_199110.pdf</t>
+  </si>
+  <si>
     <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
@@ -647,13 +662,16 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/~{RD},GND,/DAC_CLK,+5V,/~{CS},/A0,/D1,/D2,/~{WR},unconnected-(U4-~{IRQ}-Pad2),unconnected-(U4-DOCD-Pad22),unconnected-(U4-TEST-Pad9),/D5,/~{RESET},/SMPBD,/D4,/A1,/CLK,/D6,/SMPAC,/D7,/D0,/D3,/DOAB</t>
+    <t>/DOAB,/~{RD},/D3,/A0,/D7,/D6,/~{RESET},unconnected-(U4-TEST-Pad9),/D4,/A1,unconnected-(U4-DOCD-Pad22),/~{CS},/D5,/CLK,/DAC_CLK,/SMPAC,/D1,/D2,+5V,unconnected-(U4-~{IRQ}-Pad2),/~{WR},GND,/D0,/SMPBD</t>
+  </si>
+  <si>
+    <t>SMPBD</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
+    <t>Oscillator, 14.31818 MHz, 25 ppm, SMD, 7mm x 5mm, CMOS / TTL, 5 V</t>
   </si>
   <si>
     <t>ASV-xxxMHz</t>
@@ -671,7 +689,7 @@
     <t>Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
   </si>
   <si>
-    <t>http://www.abracon.com/Oscillators/ASV.pdf</t>
+    <t>https://4donline.ihs.com/images/VipMasterIC/IC/SCMP/SCMP-S-A0010069830/SCMP-S-A0010069830-1.pdf?hkey=6D3A4C79FDBF58556ACFDE234799DDF0</t>
   </si>
   <si>
     <t>Oscillator:Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
@@ -689,10 +707,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>GND,/CLK,+5V</t>
-  </si>
-  <si>
-    <t>CLK,+5V</t>
+    <t>+5V,GND,/CLK</t>
+  </si>
+  <si>
+    <t>CLK</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1275,7 +1293,7 @@
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="52.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" customWidth="1"/>
@@ -1300,7 +1318,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1334,13 +1352,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -1348,41 +1366,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1390,13 +1408,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F6" s="3">
         <v>32</v>
@@ -1794,7 +1812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>76</v>
       </c>
@@ -1828,14 +1846,14 @@
       <c r="K12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>41</v>
+      <c r="L12" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>44</v>
@@ -1847,16 +1865,16 @@
         <v>44</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V12" s="11" t="s">
         <v>49</v>
@@ -1871,19 +1889,19 @@
         <v>51</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB12" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE12" s="10" t="s">
         <v>55</v>
@@ -1892,12 +1910,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>78</v>
@@ -1906,13 +1924,13 @@
         <v>35</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>39</v>
@@ -1945,16 +1963,16 @@
         <v>44</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>49</v>
@@ -1969,10 +1987,10 @@
         <v>51</v>
       </c>
       <c r="Z13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>69</v>
@@ -1992,28 +2010,28 @@
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>32</v>
@@ -2043,43 +2061,43 @@
         <v>44</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE14" s="10" t="s">
         <v>55</v>
@@ -2090,28 +2108,28 @@
     </row>
     <row r="15" spans="1:32" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>32</v>
@@ -2141,43 +2159,43 @@
         <v>44</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>75</v>
@@ -2188,28 +2206,28 @@
     </row>
     <row r="16" spans="1:32" ht="180" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>32</v>
@@ -2239,13 +2257,13 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>73</v>
@@ -2254,28 +2272,28 @@
         <v>49</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AE16" s="10" t="s">
         <v>75</v>
@@ -2286,28 +2304,28 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -2337,10 +2355,10 @@
         <v>44</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>47</v>
@@ -2367,13 +2385,13 @@
         <v>53</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2384,28 +2402,28 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>56</v>
@@ -2435,13 +2453,13 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>63</v>
@@ -2465,13 +2483,13 @@
         <v>53</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2480,36 +2498,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>40</v>
@@ -2521,7 +2539,7 @@
         <v>42</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>44</v>
@@ -2533,13 +2551,13 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>63</v>
@@ -2563,45 +2581,45 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="45" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="G20" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2613,7 +2631,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>42</v>
@@ -2631,13 +2649,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>73</v>
@@ -2655,19 +2673,19 @@
         <v>51</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>75</v>
@@ -2678,28 +2696,28 @@
     </row>
     <row r="21" spans="1:32" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2711,7 +2729,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>42</v>
@@ -2729,13 +2747,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>73</v>
@@ -2753,19 +2771,19 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>75</v>
@@ -2776,28 +2794,28 @@
     </row>
     <row r="22" spans="1:32" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2808,8 +2826,8 @@
       <c r="K22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>44</v>
+      <c r="L22" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>42</v>
@@ -2827,13 +2845,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>73</v>
@@ -2851,19 +2869,19 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>75</v>
@@ -2874,28 +2892,28 @@
     </row>
     <row r="23" spans="1:32" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>32</v>
@@ -2906,8 +2924,8 @@
       <c r="K23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>44</v>
+      <c r="L23" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>42</v>
@@ -2925,13 +2943,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>63</v>
@@ -2949,19 +2967,19 @@
         <v>51</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>75</v>
@@ -2970,30 +2988,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" ht="45" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3005,7 +3023,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>42</v>
@@ -3023,13 +3041,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>73</v>
@@ -3047,19 +3065,19 @@
         <v>51</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AA24" s="11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>75</v>
@@ -3091,27 +3109,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
